--- a/기획서/기획서 2차 - 구혜원.xlsx
+++ b/기획서/기획서 2차 - 구혜원.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\수업\수업 외 활동\5. 유니티 2D게임\GitHub\NoJump\기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89BC8C57-C0F2-46B0-85E2-2E02F27B1CD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04DAC6C8-6746-4A29-905D-C56B01C59460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{6831196C-BD2B-4079-A5C5-73E04D2210C2}"/>
   </bookViews>
@@ -2063,7 +2063,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="188">
+  <cellXfs count="187">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2217,6 +2217,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="75" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="78" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2265,15 +2283,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2307,6 +2316,87 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="79" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="77" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="71" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="73" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="61" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="68" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="72" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="76" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="77" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2328,6 +2418,123 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="69" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="70" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2337,296 +2544,86 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="69" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="70" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="75" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="78" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="71" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="72" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="73" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="68" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="61" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="77" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="76" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="77" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="79" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6338,27 +6335,27 @@
       <c r="A16" s="33"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A17" s="60" t="s">
+      <c r="A17" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="61"/>
-      <c r="C17" s="61"/>
-      <c r="D17" s="62"/>
+      <c r="B17" s="67"/>
+      <c r="C17" s="67"/>
+      <c r="D17" s="68"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A18" s="63" t="s">
+      <c r="A18" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="64"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="66" t="s">
+      <c r="B18" s="70"/>
+      <c r="C18" s="70"/>
+      <c r="D18" s="71"/>
+      <c r="E18" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="F18" s="66"/>
-      <c r="G18" s="66"/>
-      <c r="H18" s="66"/>
-      <c r="I18" s="66"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="72"/>
+      <c r="H18" s="72"/>
+      <c r="I18" s="72"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19" s="31"/>
@@ -6372,23 +6369,23 @@
       <c r="I19" s="31"/>
     </row>
     <row r="34" spans="1:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="51" t="s">
+      <c r="A34" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="B34" s="52"/>
-      <c r="C34" s="52"/>
-      <c r="D34" s="52"/>
-      <c r="E34" s="52"/>
-      <c r="F34" s="52"/>
-      <c r="G34" s="52"/>
-      <c r="H34" s="52"/>
-      <c r="I34" s="52"/>
-      <c r="J34" s="52"/>
-      <c r="K34" s="52"/>
-      <c r="L34" s="52"/>
-      <c r="M34" s="52"/>
-      <c r="N34" s="52"/>
-      <c r="O34" s="53"/>
+      <c r="B34" s="58"/>
+      <c r="C34" s="58"/>
+      <c r="D34" s="58"/>
+      <c r="E34" s="58"/>
+      <c r="F34" s="58"/>
+      <c r="G34" s="58"/>
+      <c r="H34" s="58"/>
+      <c r="I34" s="58"/>
+      <c r="J34" s="58"/>
+      <c r="K34" s="58"/>
+      <c r="L34" s="58"/>
+      <c r="M34" s="58"/>
+      <c r="N34" s="58"/>
+      <c r="O34" s="59"/>
     </row>
     <row r="35" spans="1:15" ht="18" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A35" s="6" t="s">
@@ -6498,10 +6495,10 @@
       <c r="A40" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B40" s="54" t="s">
+      <c r="B40" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="C40" s="55"/>
+      <c r="C40" s="61"/>
       <c r="D40" s="17" t="s">
         <v>22</v>
       </c>
@@ -6519,8 +6516,8 @@
     </row>
     <row r="41" spans="1:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A41" s="16"/>
-      <c r="B41" s="56"/>
-      <c r="C41" s="57"/>
+      <c r="B41" s="62"/>
+      <c r="C41" s="63"/>
       <c r="D41" s="9" t="s">
         <v>23</v>
       </c>
@@ -6541,21 +6538,21 @@
       <c r="B42" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C42" s="58" t="s">
+      <c r="C42" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="D42" s="58"/>
-      <c r="E42" s="58"/>
-      <c r="F42" s="58"/>
-      <c r="G42" s="58"/>
-      <c r="H42" s="58"/>
-      <c r="I42" s="58"/>
-      <c r="J42" s="58"/>
-      <c r="K42" s="58"/>
-      <c r="L42" s="58"/>
-      <c r="M42" s="58"/>
-      <c r="N42" s="58"/>
-      <c r="O42" s="59"/>
+      <c r="D42" s="64"/>
+      <c r="E42" s="64"/>
+      <c r="F42" s="64"/>
+      <c r="G42" s="64"/>
+      <c r="H42" s="64"/>
+      <c r="I42" s="64"/>
+      <c r="J42" s="64"/>
+      <c r="K42" s="64"/>
+      <c r="L42" s="64"/>
+      <c r="M42" s="64"/>
+      <c r="N42" s="64"/>
+      <c r="O42" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -6592,45 +6589,45 @@
       </c>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B22" s="72" t="s">
+      <c r="B22" s="75" t="s">
         <v>182</v>
       </c>
-      <c r="C22" s="72"/>
-      <c r="D22" s="72"/>
-      <c r="E22" s="72"/>
-      <c r="F22" s="72"/>
-      <c r="G22" s="72"/>
-      <c r="H22" s="72"/>
-      <c r="I22" s="72"/>
-      <c r="J22" s="72"/>
-      <c r="K22" s="72"/>
-      <c r="L22" s="72"/>
-      <c r="M22" s="72"/>
-      <c r="N22" s="72"/>
+      <c r="C22" s="75"/>
+      <c r="D22" s="75"/>
+      <c r="E22" s="75"/>
+      <c r="F22" s="75"/>
+      <c r="G22" s="75"/>
+      <c r="H22" s="75"/>
+      <c r="I22" s="75"/>
+      <c r="J22" s="75"/>
+      <c r="K22" s="75"/>
+      <c r="L22" s="75"/>
+      <c r="M22" s="75"/>
+      <c r="N22" s="75"/>
     </row>
     <row r="23" spans="2:14" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="24" spans="2:14" ht="124.2" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="79" t="s">
+      <c r="B24" s="82" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="79"/>
-      <c r="D24" s="73" t="s">
+      <c r="C24" s="82"/>
+      <c r="D24" s="76" t="s">
         <v>177</v>
       </c>
-      <c r="E24" s="74"/>
-      <c r="F24" s="74"/>
-      <c r="G24" s="74"/>
-      <c r="H24" s="74"/>
-      <c r="I24" s="74"/>
-      <c r="J24" s="74"/>
-      <c r="K24" s="74"/>
-      <c r="L24" s="74"/>
-      <c r="M24" s="74"/>
-      <c r="N24" s="75"/>
+      <c r="E24" s="77"/>
+      <c r="F24" s="77"/>
+      <c r="G24" s="77"/>
+      <c r="H24" s="77"/>
+      <c r="I24" s="77"/>
+      <c r="J24" s="77"/>
+      <c r="K24" s="77"/>
+      <c r="L24" s="77"/>
+      <c r="M24" s="77"/>
+      <c r="N24" s="78"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B25" s="80"/>
-      <c r="C25" s="80"/>
+      <c r="B25" s="83"/>
+      <c r="C25" s="83"/>
       <c r="D25" t="s">
         <v>172</v>
       </c>
@@ -6639,12 +6636,12 @@
       </c>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B26" s="80"/>
-      <c r="C26" s="80"/>
-      <c r="D26" s="78" t="s">
+      <c r="B26" s="83"/>
+      <c r="C26" s="83"/>
+      <c r="D26" s="81" t="s">
         <v>175</v>
       </c>
-      <c r="E26" s="78"/>
+      <c r="E26" s="81"/>
       <c r="F26" t="s">
         <v>166</v>
       </c>
@@ -6653,10 +6650,10 @@
       </c>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B27" s="80"/>
-      <c r="C27" s="80"/>
-      <c r="D27" s="78"/>
-      <c r="E27" s="78"/>
+      <c r="B27" s="83"/>
+      <c r="C27" s="83"/>
+      <c r="D27" s="81"/>
+      <c r="E27" s="81"/>
       <c r="F27">
         <v>20</v>
       </c>
@@ -6665,8 +6662,8 @@
       </c>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B28" s="80"/>
-      <c r="C28" s="80"/>
+      <c r="B28" s="83"/>
+      <c r="C28" s="83"/>
       <c r="E28" t="s">
         <v>167</v>
       </c>
@@ -6684,33 +6681,33 @@
       </c>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B29" s="80"/>
-      <c r="C29" s="80"/>
+      <c r="B29" s="83"/>
+      <c r="C29" s="83"/>
       <c r="D29" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B30" s="80"/>
-      <c r="C30" s="80"/>
+      <c r="B30" s="83"/>
+      <c r="C30" s="83"/>
       <c r="D30" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B31" s="80"/>
-      <c r="C31" s="80"/>
+      <c r="B31" s="83"/>
+      <c r="C31" s="83"/>
       <c r="D31" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B32" s="80"/>
-      <c r="C32" s="80"/>
+      <c r="B32" s="83"/>
+      <c r="C32" s="83"/>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B33" s="80"/>
-      <c r="C33" s="80"/>
+      <c r="B33" s="83"/>
+      <c r="C33" s="83"/>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B36" t="s">
@@ -6722,168 +6719,177 @@
         <v>39</v>
       </c>
       <c r="C53" s="20"/>
-      <c r="D53" s="76" t="s">
+      <c r="D53" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="E53" s="76"/>
-      <c r="F53" s="76"/>
-      <c r="G53" s="76"/>
-      <c r="H53" s="76"/>
-      <c r="I53" s="76"/>
-      <c r="J53" s="76"/>
-      <c r="K53" s="76"/>
-      <c r="L53" s="76"/>
-      <c r="M53" s="76"/>
-      <c r="N53" s="77"/>
+      <c r="E53" s="79"/>
+      <c r="F53" s="79"/>
+      <c r="G53" s="79"/>
+      <c r="H53" s="79"/>
+      <c r="I53" s="79"/>
+      <c r="J53" s="79"/>
+      <c r="K53" s="79"/>
+      <c r="L53" s="79"/>
+      <c r="M53" s="79"/>
+      <c r="N53" s="80"/>
     </row>
     <row r="65" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C65" s="21" t="s">
         <v>41</v>
       </c>
       <c r="D65" s="20"/>
-      <c r="E65" s="76" t="s">
+      <c r="E65" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="F65" s="76"/>
-      <c r="G65" s="76"/>
-      <c r="H65" s="76"/>
-      <c r="I65" s="76"/>
-      <c r="J65" s="76"/>
-      <c r="K65" s="76"/>
-      <c r="L65" s="76"/>
-      <c r="M65" s="76"/>
-      <c r="N65" s="76"/>
-      <c r="O65" s="77"/>
+      <c r="F65" s="79"/>
+      <c r="G65" s="79"/>
+      <c r="H65" s="79"/>
+      <c r="I65" s="79"/>
+      <c r="J65" s="79"/>
+      <c r="K65" s="79"/>
+      <c r="L65" s="79"/>
+      <c r="M65" s="79"/>
+      <c r="N65" s="79"/>
+      <c r="O65" s="80"/>
     </row>
     <row r="66" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C66" s="21" t="s">
         <v>43</v>
       </c>
       <c r="D66" s="20"/>
-      <c r="E66" s="76" t="s">
+      <c r="E66" s="79" t="s">
         <v>44</v>
       </c>
-      <c r="F66" s="76"/>
-      <c r="G66" s="76"/>
-      <c r="H66" s="76"/>
-      <c r="I66" s="76"/>
-      <c r="J66" s="76"/>
-      <c r="K66" s="76"/>
-      <c r="L66" s="76"/>
-      <c r="M66" s="76"/>
-      <c r="N66" s="76"/>
-      <c r="O66" s="77"/>
+      <c r="F66" s="79"/>
+      <c r="G66" s="79"/>
+      <c r="H66" s="79"/>
+      <c r="I66" s="79"/>
+      <c r="J66" s="79"/>
+      <c r="K66" s="79"/>
+      <c r="L66" s="79"/>
+      <c r="M66" s="79"/>
+      <c r="N66" s="79"/>
+      <c r="O66" s="80"/>
     </row>
     <row r="67" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C67" s="21" t="s">
         <v>45</v>
       </c>
       <c r="D67" s="20"/>
-      <c r="E67" s="76" t="s">
+      <c r="E67" s="79" t="s">
         <v>46</v>
       </c>
-      <c r="F67" s="76"/>
-      <c r="G67" s="76"/>
-      <c r="H67" s="76"/>
-      <c r="I67" s="76"/>
-      <c r="J67" s="76"/>
-      <c r="K67" s="76"/>
-      <c r="L67" s="76"/>
-      <c r="M67" s="76"/>
-      <c r="N67" s="76"/>
-      <c r="O67" s="77"/>
+      <c r="F67" s="79"/>
+      <c r="G67" s="79"/>
+      <c r="H67" s="79"/>
+      <c r="I67" s="79"/>
+      <c r="J67" s="79"/>
+      <c r="K67" s="79"/>
+      <c r="L67" s="79"/>
+      <c r="M67" s="79"/>
+      <c r="N67" s="79"/>
+      <c r="O67" s="80"/>
     </row>
     <row r="68" spans="3:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C68" s="22" t="s">
         <v>47</v>
       </c>
       <c r="D68" s="23"/>
-      <c r="E68" s="70" t="s">
+      <c r="E68" s="73" t="s">
         <v>48</v>
       </c>
-      <c r="F68" s="70"/>
-      <c r="G68" s="70"/>
-      <c r="H68" s="70"/>
-      <c r="I68" s="70"/>
-      <c r="J68" s="70"/>
-      <c r="K68" s="70"/>
-      <c r="L68" s="70"/>
-      <c r="M68" s="70"/>
-      <c r="N68" s="70"/>
-      <c r="O68" s="71"/>
+      <c r="F68" s="73"/>
+      <c r="G68" s="73"/>
+      <c r="H68" s="73"/>
+      <c r="I68" s="73"/>
+      <c r="J68" s="73"/>
+      <c r="K68" s="73"/>
+      <c r="L68" s="73"/>
+      <c r="M68" s="73"/>
+      <c r="N68" s="73"/>
+      <c r="O68" s="74"/>
     </row>
     <row r="71" spans="3:15" x14ac:dyDescent="0.4">
-      <c r="C71" s="66" t="s">
+      <c r="C71" s="72" t="s">
         <v>130</v>
       </c>
-      <c r="D71" s="66"/>
-      <c r="E71" s="66" t="s">
+      <c r="D71" s="72"/>
+      <c r="E71" s="72" t="s">
         <v>131</v>
       </c>
-      <c r="F71" s="66"/>
-      <c r="G71" s="67" t="s">
+      <c r="F71" s="72"/>
+      <c r="G71" s="84" t="s">
         <v>132</v>
       </c>
-      <c r="H71" s="68"/>
-      <c r="I71" s="68"/>
-      <c r="J71" s="68"/>
-      <c r="K71" s="68"/>
-      <c r="L71" s="68"/>
-      <c r="M71" s="69"/>
+      <c r="H71" s="85"/>
+      <c r="I71" s="85"/>
+      <c r="J71" s="85"/>
+      <c r="K71" s="85"/>
+      <c r="L71" s="85"/>
+      <c r="M71" s="86"/>
     </row>
     <row r="72" spans="3:15" x14ac:dyDescent="0.4">
-      <c r="C72" s="66"/>
-      <c r="D72" s="66"/>
-      <c r="E72" s="66" t="s">
+      <c r="C72" s="72"/>
+      <c r="D72" s="72"/>
+      <c r="E72" s="72" t="s">
         <v>133</v>
       </c>
-      <c r="F72" s="66"/>
-      <c r="G72" s="67" t="s">
+      <c r="F72" s="72"/>
+      <c r="G72" s="84" t="s">
         <v>134</v>
       </c>
-      <c r="H72" s="68"/>
-      <c r="I72" s="68"/>
-      <c r="J72" s="68"/>
-      <c r="K72" s="68"/>
-      <c r="L72" s="68"/>
-      <c r="M72" s="69"/>
+      <c r="H72" s="85"/>
+      <c r="I72" s="85"/>
+      <c r="J72" s="85"/>
+      <c r="K72" s="85"/>
+      <c r="L72" s="85"/>
+      <c r="M72" s="86"/>
     </row>
     <row r="73" spans="3:15" x14ac:dyDescent="0.4">
-      <c r="C73" s="66"/>
-      <c r="D73" s="66"/>
-      <c r="E73" s="66" t="s">
+      <c r="C73" s="72"/>
+      <c r="D73" s="72"/>
+      <c r="E73" s="72" t="s">
         <v>135</v>
       </c>
-      <c r="F73" s="66"/>
-      <c r="G73" s="67" t="s">
+      <c r="F73" s="72"/>
+      <c r="G73" s="84" t="s">
         <v>136</v>
       </c>
-      <c r="H73" s="68"/>
-      <c r="I73" s="68"/>
-      <c r="J73" s="68"/>
-      <c r="K73" s="68"/>
-      <c r="L73" s="68"/>
-      <c r="M73" s="69"/>
+      <c r="H73" s="85"/>
+      <c r="I73" s="85"/>
+      <c r="J73" s="85"/>
+      <c r="K73" s="85"/>
+      <c r="L73" s="85"/>
+      <c r="M73" s="86"/>
     </row>
     <row r="74" spans="3:15" x14ac:dyDescent="0.4">
-      <c r="C74" s="66"/>
-      <c r="D74" s="66"/>
-      <c r="E74" s="66" t="s">
+      <c r="C74" s="72"/>
+      <c r="D74" s="72"/>
+      <c r="E74" s="72" t="s">
         <v>137</v>
       </c>
-      <c r="F74" s="66"/>
-      <c r="G74" s="67" t="s">
+      <c r="F74" s="72"/>
+      <c r="G74" s="84" t="s">
         <v>138</v>
       </c>
-      <c r="H74" s="68"/>
-      <c r="I74" s="68"/>
-      <c r="J74" s="68"/>
-      <c r="K74" s="68"/>
-      <c r="L74" s="68"/>
-      <c r="M74" s="69"/>
+      <c r="H74" s="85"/>
+      <c r="I74" s="85"/>
+      <c r="J74" s="85"/>
+      <c r="K74" s="85"/>
+      <c r="L74" s="85"/>
+      <c r="M74" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="C71:D74"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="G71:M71"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="G72:M72"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="G73:M73"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="G74:M74"/>
     <mergeCell ref="E68:O68"/>
     <mergeCell ref="B22:N22"/>
     <mergeCell ref="D24:N24"/>
@@ -6893,15 +6899,6 @@
     <mergeCell ref="E67:O67"/>
     <mergeCell ref="D26:E27"/>
     <mergeCell ref="B24:C33"/>
-    <mergeCell ref="C71:D74"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="G71:M71"/>
-    <mergeCell ref="E72:F72"/>
-    <mergeCell ref="G72:M72"/>
-    <mergeCell ref="E73:F73"/>
-    <mergeCell ref="G73:M73"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="G74:M74"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6911,10 +6908,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB61364C-7092-4374-B974-5D8E093825D9}">
-  <dimension ref="B15:M45"/>
+  <dimension ref="B15:L44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38:XFD38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -6924,160 +6921,157 @@
   <sheetData>
     <row r="15" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="16" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="81" t="s">
+      <c r="B16" s="111" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="82"/>
-      <c r="D16" s="82"/>
-      <c r="E16" s="82"/>
-      <c r="F16" s="82"/>
-      <c r="G16" s="82"/>
-      <c r="H16" s="82"/>
-      <c r="I16" s="82"/>
-      <c r="J16" s="82"/>
-      <c r="K16" s="82"/>
-      <c r="L16" s="83"/>
-    </row>
-    <row r="17" spans="2:13" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="153" t="s">
+      <c r="C16" s="112"/>
+      <c r="D16" s="112"/>
+      <c r="E16" s="112"/>
+      <c r="F16" s="112"/>
+      <c r="G16" s="112"/>
+      <c r="H16" s="112"/>
+      <c r="I16" s="112"/>
+      <c r="J16" s="112"/>
+      <c r="K16" s="112"/>
+      <c r="L16" s="113"/>
+    </row>
+    <row r="17" spans="2:12" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="121" t="s">
         <v>222</v>
       </c>
-      <c r="C17" s="154"/>
-      <c r="D17" s="154"/>
-      <c r="E17" s="154"/>
-      <c r="F17" s="154"/>
-      <c r="G17" s="154"/>
-      <c r="H17" s="154"/>
-      <c r="I17" s="154"/>
-      <c r="J17" s="154"/>
-      <c r="K17" s="154"/>
-      <c r="L17" s="155"/>
-    </row>
-    <row r="18" spans="2:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="156" t="s">
+      <c r="C17" s="122"/>
+      <c r="D17" s="122"/>
+      <c r="E17" s="122"/>
+      <c r="F17" s="122"/>
+      <c r="G17" s="122"/>
+      <c r="H17" s="122"/>
+      <c r="I17" s="122"/>
+      <c r="J17" s="122"/>
+      <c r="K17" s="122"/>
+      <c r="L17" s="123"/>
+    </row>
+    <row r="18" spans="2:12" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B18" s="118" t="s">
         <v>223</v>
       </c>
-      <c r="C18" s="157"/>
-      <c r="D18" s="157"/>
-      <c r="E18" s="157"/>
-      <c r="F18" s="157"/>
-      <c r="G18" s="157"/>
-      <c r="H18" s="157"/>
-      <c r="I18" s="157"/>
-      <c r="J18" s="157"/>
-      <c r="K18" s="157"/>
-      <c r="L18" s="158"/>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="C18" s="119"/>
+      <c r="D18" s="119"/>
+      <c r="E18" s="119"/>
+      <c r="F18" s="119"/>
+      <c r="G18" s="119"/>
+      <c r="H18" s="119"/>
+      <c r="I18" s="119"/>
+      <c r="J18" s="119"/>
+      <c r="K18" s="119"/>
+      <c r="L18" s="120"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B19" s="24" t="s">
         <v>27</v>
       </c>
       <c r="C19" s="16"/>
-      <c r="D19" s="74" t="s">
+      <c r="D19" s="77" t="s">
         <v>50</v>
       </c>
-      <c r="E19" s="74"/>
-      <c r="F19" s="74"/>
-      <c r="G19" s="74"/>
-      <c r="H19" s="74"/>
-      <c r="I19" s="74"/>
-      <c r="J19" s="74"/>
-      <c r="K19" s="74"/>
-      <c r="L19" s="75"/>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="E19" s="77"/>
+      <c r="F19" s="77"/>
+      <c r="G19" s="77"/>
+      <c r="H19" s="77"/>
+      <c r="I19" s="77"/>
+      <c r="J19" s="77"/>
+      <c r="K19" s="77"/>
+      <c r="L19" s="78"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B20" s="21" t="s">
         <v>51</v>
       </c>
       <c r="C20" s="20"/>
-      <c r="D20" s="76" t="s">
+      <c r="D20" s="79" t="s">
         <v>52</v>
       </c>
-      <c r="E20" s="76"/>
-      <c r="F20" s="76"/>
-      <c r="G20" s="76"/>
-      <c r="H20" s="76"/>
-      <c r="I20" s="76"/>
-      <c r="J20" s="76"/>
-      <c r="K20" s="76"/>
-      <c r="L20" s="77"/>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="E20" s="79"/>
+      <c r="F20" s="79"/>
+      <c r="G20" s="79"/>
+      <c r="H20" s="79"/>
+      <c r="I20" s="79"/>
+      <c r="J20" s="79"/>
+      <c r="K20" s="79"/>
+      <c r="L20" s="80"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B21" s="21" t="s">
         <v>53</v>
       </c>
       <c r="C21" s="20"/>
-      <c r="D21" s="76" t="s">
+      <c r="D21" s="79" t="s">
         <v>54</v>
       </c>
-      <c r="E21" s="76"/>
-      <c r="F21" s="76"/>
-      <c r="G21" s="76"/>
-      <c r="H21" s="76"/>
-      <c r="I21" s="76"/>
-      <c r="J21" s="76"/>
-      <c r="K21" s="76"/>
-      <c r="L21" s="77"/>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B22" s="84" t="s">
+      <c r="E21" s="79"/>
+      <c r="F21" s="79"/>
+      <c r="G21" s="79"/>
+      <c r="H21" s="79"/>
+      <c r="I21" s="79"/>
+      <c r="J21" s="79"/>
+      <c r="K21" s="79"/>
+      <c r="L21" s="80"/>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B22" s="114" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="85"/>
-      <c r="D22" s="76" t="s">
+      <c r="C22" s="115"/>
+      <c r="D22" s="79" t="s">
         <v>56</v>
       </c>
-      <c r="E22" s="76"/>
-      <c r="F22" s="76"/>
-      <c r="G22" s="76"/>
-      <c r="H22" s="76"/>
-      <c r="I22" s="76"/>
-      <c r="J22" s="76"/>
-      <c r="K22" s="76"/>
-      <c r="L22" s="77"/>
-    </row>
-    <row r="23" spans="2:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="86"/>
-      <c r="C23" s="87"/>
-      <c r="D23" s="70" t="s">
+      <c r="E22" s="79"/>
+      <c r="F22" s="79"/>
+      <c r="G22" s="79"/>
+      <c r="H22" s="79"/>
+      <c r="I22" s="79"/>
+      <c r="J22" s="79"/>
+      <c r="K22" s="79"/>
+      <c r="L22" s="80"/>
+    </row>
+    <row r="23" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="116"/>
+      <c r="C23" s="117"/>
+      <c r="D23" s="73" t="s">
         <v>57</v>
       </c>
-      <c r="E23" s="70"/>
-      <c r="F23" s="70"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="70"/>
-      <c r="I23" s="70"/>
-      <c r="J23" s="70"/>
-      <c r="K23" s="70"/>
-      <c r="L23" s="71"/>
-    </row>
-    <row r="24" spans="2:13" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="25" spans="2:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="169" t="s">
+      <c r="E23" s="73"/>
+      <c r="F23" s="73"/>
+      <c r="G23" s="73"/>
+      <c r="H23" s="73"/>
+      <c r="I23" s="73"/>
+      <c r="J23" s="73"/>
+      <c r="K23" s="73"/>
+      <c r="L23" s="74"/>
+    </row>
+    <row r="24" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="25" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B25" s="90" t="s">
         <v>139</v>
       </c>
-      <c r="C25" s="171"/>
-      <c r="D25" s="182" t="s">
+      <c r="C25" s="91"/>
+      <c r="D25" s="87" t="s">
         <v>239</v>
       </c>
-      <c r="E25" s="186"/>
-      <c r="F25" s="186"/>
-      <c r="G25" s="186"/>
-      <c r="H25" s="186"/>
-      <c r="I25" s="186"/>
-      <c r="J25" s="183"/>
-      <c r="K25" s="187"/>
-      <c r="L25" s="187"/>
-      <c r="M25" s="187"/>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B26" s="172"/>
-      <c r="C26" s="178"/>
-      <c r="D26" s="169" t="s">
+      <c r="E25" s="88"/>
+      <c r="F25" s="88"/>
+      <c r="G25" s="88"/>
+      <c r="H25" s="88"/>
+      <c r="I25" s="88"/>
+      <c r="J25" s="89"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B26" s="94"/>
+      <c r="C26" s="95"/>
+      <c r="D26" s="90" t="s">
         <v>145</v>
       </c>
-      <c r="E26" s="171"/>
-      <c r="F26" s="159" t="s">
+      <c r="E26" s="91"/>
+      <c r="F26" s="51" t="s">
         <v>140</v>
       </c>
       <c r="G26" s="47" t="s">
@@ -7093,11 +7087,11 @@
         <v>144</v>
       </c>
     </row>
-    <row r="27" spans="2:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="179"/>
-      <c r="C27" s="181"/>
-      <c r="D27" s="179"/>
-      <c r="E27" s="181"/>
+    <row r="27" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B27" s="92"/>
+      <c r="C27" s="93"/>
+      <c r="D27" s="92"/>
+      <c r="E27" s="93"/>
       <c r="F27" s="40">
         <v>1</v>
       </c>
@@ -7114,80 +7108,80 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B28" s="161" t="s">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B28" s="96" t="s">
         <v>241</v>
       </c>
-      <c r="C28" s="162"/>
-      <c r="D28" s="162"/>
-      <c r="E28" s="162"/>
-      <c r="F28" s="162"/>
-      <c r="G28" s="162"/>
-      <c r="H28" s="162"/>
-      <c r="I28" s="162"/>
-      <c r="J28" s="166"/>
-    </row>
-    <row r="29" spans="2:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="163" t="s">
+      <c r="C28" s="97"/>
+      <c r="D28" s="97"/>
+      <c r="E28" s="97"/>
+      <c r="F28" s="97"/>
+      <c r="G28" s="97"/>
+      <c r="H28" s="97"/>
+      <c r="I28" s="97"/>
+      <c r="J28" s="98"/>
+    </row>
+    <row r="29" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B29" s="99" t="s">
         <v>242</v>
       </c>
-      <c r="C29" s="144"/>
-      <c r="D29" s="144"/>
-      <c r="E29" s="144"/>
-      <c r="F29" s="144"/>
-      <c r="G29" s="144"/>
-      <c r="H29" s="144"/>
-      <c r="I29" s="144"/>
-      <c r="J29" s="145"/>
-    </row>
-    <row r="30" spans="2:13" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="31" spans="2:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="169" t="s">
+      <c r="C29" s="100"/>
+      <c r="D29" s="100"/>
+      <c r="E29" s="100"/>
+      <c r="F29" s="100"/>
+      <c r="G29" s="100"/>
+      <c r="H29" s="100"/>
+      <c r="I29" s="100"/>
+      <c r="J29" s="101"/>
+    </row>
+    <row r="30" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="31" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B31" s="90" t="s">
         <v>224</v>
       </c>
-      <c r="C31" s="170"/>
-      <c r="D31" s="184" t="s">
+      <c r="C31" s="104"/>
+      <c r="D31" s="105" t="s">
         <v>225</v>
       </c>
-      <c r="E31" s="185"/>
-      <c r="F31" s="182">
+      <c r="E31" s="106"/>
+      <c r="F31" s="87">
         <v>2</v>
       </c>
-      <c r="G31" s="186"/>
-      <c r="H31" s="186"/>
-      <c r="I31" s="186"/>
-      <c r="J31" s="183"/>
-    </row>
-    <row r="32" spans="2:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="172"/>
-      <c r="C32" s="178"/>
-      <c r="D32" s="179" t="s">
+      <c r="G31" s="88"/>
+      <c r="H31" s="88"/>
+      <c r="I31" s="88"/>
+      <c r="J31" s="89"/>
+    </row>
+    <row r="32" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B32" s="94"/>
+      <c r="C32" s="95"/>
+      <c r="D32" s="92" t="s">
         <v>226</v>
       </c>
-      <c r="E32" s="181"/>
-      <c r="F32" s="160" t="s">
+      <c r="E32" s="93"/>
+      <c r="F32" s="52" t="s">
         <v>140</v>
       </c>
-      <c r="G32" s="164" t="s">
+      <c r="G32" s="54" t="s">
         <v>141</v>
       </c>
-      <c r="H32" s="164" t="s">
+      <c r="H32" s="54" t="s">
         <v>142</v>
       </c>
-      <c r="I32" s="164" t="s">
+      <c r="I32" s="54" t="s">
         <v>143</v>
       </c>
-      <c r="J32" s="165" t="s">
+      <c r="J32" s="55" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="33" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B33" s="179"/>
-      <c r="C33" s="181"/>
-      <c r="D33" s="179" t="s">
+      <c r="B33" s="92"/>
+      <c r="C33" s="93"/>
+      <c r="D33" s="92" t="s">
         <v>227</v>
       </c>
-      <c r="E33" s="181"/>
+      <c r="E33" s="93"/>
       <c r="F33" s="41">
         <v>0</v>
       </c>
@@ -7206,37 +7200,37 @@
     </row>
     <row r="34" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="35" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B35" s="169" t="s">
+      <c r="B35" s="90" t="s">
         <v>228</v>
       </c>
-      <c r="C35" s="170"/>
-      <c r="D35" s="184" t="s">
+      <c r="C35" s="104"/>
+      <c r="D35" s="105" t="s">
         <v>226</v>
       </c>
-      <c r="E35" s="185"/>
-      <c r="F35" s="167" t="s">
+      <c r="E35" s="106"/>
+      <c r="F35" s="56" t="s">
         <v>140</v>
       </c>
-      <c r="G35" s="164" t="s">
+      <c r="G35" s="54" t="s">
         <v>141</v>
       </c>
-      <c r="H35" s="164" t="s">
+      <c r="H35" s="54" t="s">
         <v>142</v>
       </c>
-      <c r="I35" s="164" t="s">
+      <c r="I35" s="54" t="s">
         <v>143</v>
       </c>
-      <c r="J35" s="165" t="s">
+      <c r="J35" s="55" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="36" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B36" s="179"/>
-      <c r="C36" s="180"/>
-      <c r="D36" s="184" t="s">
+      <c r="B36" s="92"/>
+      <c r="C36" s="107"/>
+      <c r="D36" s="105" t="s">
         <v>240</v>
       </c>
-      <c r="E36" s="185"/>
+      <c r="E36" s="106"/>
       <c r="F36" s="41">
         <v>2</v>
       </c>
@@ -7253,174 +7247,156 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B39" s="169" t="s">
+    <row r="37" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B38" s="90" t="s">
         <v>229</v>
       </c>
-      <c r="C39" s="170"/>
-      <c r="D39" s="169" t="s">
+      <c r="C38" s="104"/>
+      <c r="D38" s="90" t="s">
         <v>230</v>
       </c>
-      <c r="E39" s="171"/>
-      <c r="F39" s="167" t="s">
+      <c r="E38" s="91"/>
+      <c r="F38" s="56" t="s">
         <v>140</v>
       </c>
-      <c r="G39" s="164" t="s">
+      <c r="G38" s="54" t="s">
         <v>141</v>
       </c>
-      <c r="H39" s="164" t="s">
+      <c r="H38" s="54" t="s">
         <v>142</v>
       </c>
-      <c r="I39" s="164" t="s">
+      <c r="I38" s="54" t="s">
         <v>143</v>
       </c>
-      <c r="J39" s="165" t="s">
+      <c r="J38" s="55" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="40" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="172"/>
-      <c r="C40" s="173"/>
-      <c r="D40" s="174"/>
-      <c r="E40" s="175"/>
-      <c r="F40" s="168">
+    <row r="39" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B39" s="94"/>
+      <c r="C39" s="110"/>
+      <c r="D39" s="108"/>
+      <c r="E39" s="109"/>
+      <c r="F39" s="53">
         <v>1</v>
       </c>
-      <c r="G40" s="41">
+      <c r="G39" s="41">
         <v>2</v>
       </c>
-      <c r="H40" s="41">
+      <c r="H39" s="41">
         <v>3</v>
       </c>
-      <c r="I40" s="41">
+      <c r="I39" s="41">
         <v>4</v>
       </c>
-      <c r="J40" s="42">
+      <c r="J39" s="42">
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B41" s="172"/>
-      <c r="C41" s="173"/>
-      <c r="D41" s="176" t="s">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B40" s="94"/>
+      <c r="C40" s="110"/>
+      <c r="D40" s="102" t="s">
         <v>231</v>
       </c>
-      <c r="E41" s="177"/>
-      <c r="F41" s="167" t="s">
+      <c r="E40" s="103"/>
+      <c r="F40" s="56" t="s">
         <v>140</v>
       </c>
-      <c r="G41" s="164" t="s">
+      <c r="G40" s="54" t="s">
         <v>141</v>
       </c>
-      <c r="H41" s="164" t="s">
+      <c r="H40" s="54" t="s">
         <v>142</v>
       </c>
-      <c r="I41" s="164" t="s">
+      <c r="I40" s="54" t="s">
         <v>143</v>
       </c>
-      <c r="J41" s="165" t="s">
+      <c r="J40" s="55" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="42" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B42" s="172"/>
-      <c r="C42" s="173"/>
-      <c r="D42" s="174"/>
-      <c r="E42" s="175"/>
-      <c r="F42" s="168" t="s">
+    <row r="41" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B41" s="94"/>
+      <c r="C41" s="110"/>
+      <c r="D41" s="108"/>
+      <c r="E41" s="109"/>
+      <c r="F41" s="53" t="s">
         <v>232</v>
       </c>
-      <c r="G42" s="41" t="s">
+      <c r="G41" s="41" t="s">
         <v>233</v>
       </c>
-      <c r="H42" s="41" t="s">
+      <c r="H41" s="41" t="s">
         <v>234</v>
       </c>
-      <c r="I42" s="41" t="s">
+      <c r="I41" s="41" t="s">
         <v>235</v>
       </c>
-      <c r="J42" s="42" t="s">
+      <c r="J41" s="42" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B43" s="172"/>
-      <c r="C43" s="173"/>
-      <c r="D43" s="176" t="s">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B42" s="94"/>
+      <c r="C42" s="110"/>
+      <c r="D42" s="102" t="s">
         <v>237</v>
       </c>
-      <c r="E43" s="177"/>
-      <c r="F43" s="167" t="s">
+      <c r="E42" s="103"/>
+      <c r="F42" s="56" t="s">
         <v>140</v>
       </c>
-      <c r="G43" s="164" t="s">
+      <c r="G42" s="54" t="s">
         <v>141</v>
       </c>
-      <c r="H43" s="164" t="s">
+      <c r="H42" s="54" t="s">
         <v>142</v>
       </c>
-      <c r="I43" s="164" t="s">
+      <c r="I42" s="54" t="s">
         <v>143</v>
       </c>
-      <c r="J43" s="165" t="s">
+      <c r="J42" s="55" t="s">
         <v>144</v>
       </c>
     </row>
+    <row r="43" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B43" s="94"/>
+      <c r="C43" s="110"/>
+      <c r="D43" s="94"/>
+      <c r="E43" s="95"/>
+      <c r="F43" s="53">
+        <v>1</v>
+      </c>
+      <c r="G43" s="41">
+        <v>2</v>
+      </c>
+      <c r="H43" s="41">
+        <v>3</v>
+      </c>
+      <c r="I43" s="41">
+        <v>4</v>
+      </c>
+      <c r="J43" s="42">
+        <v>5</v>
+      </c>
+    </row>
     <row r="44" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B44" s="172"/>
-      <c r="C44" s="173"/>
-      <c r="D44" s="172"/>
-      <c r="E44" s="178"/>
-      <c r="F44" s="168">
-        <v>1</v>
-      </c>
-      <c r="G44" s="41">
-        <v>2</v>
-      </c>
-      <c r="H44" s="41">
-        <v>3</v>
-      </c>
-      <c r="I44" s="41">
-        <v>4</v>
-      </c>
-      <c r="J44" s="42">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B45" s="179"/>
-      <c r="C45" s="180"/>
-      <c r="D45" s="179"/>
-      <c r="E45" s="181"/>
-      <c r="F45" s="163" t="s">
+      <c r="B44" s="92"/>
+      <c r="C44" s="107"/>
+      <c r="D44" s="92"/>
+      <c r="E44" s="93"/>
+      <c r="F44" s="99" t="s">
         <v>238</v>
       </c>
-      <c r="G45" s="144"/>
-      <c r="H45" s="144"/>
-      <c r="I45" s="144"/>
-      <c r="J45" s="145"/>
+      <c r="G44" s="100"/>
+      <c r="H44" s="100"/>
+      <c r="I44" s="100"/>
+      <c r="J44" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="D25:J25"/>
-    <mergeCell ref="D26:E27"/>
-    <mergeCell ref="B25:C27"/>
-    <mergeCell ref="B28:J28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="F45:J45"/>
-    <mergeCell ref="D43:E45"/>
-    <mergeCell ref="B31:C33"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:J31"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="B35:C36"/>
-    <mergeCell ref="D39:E40"/>
-    <mergeCell ref="D41:E42"/>
-    <mergeCell ref="B39:C45"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D33:E33"/>
     <mergeCell ref="B16:L16"/>
     <mergeCell ref="B22:C23"/>
     <mergeCell ref="D19:L19"/>
@@ -7430,6 +7406,24 @@
     <mergeCell ref="D23:L23"/>
     <mergeCell ref="B18:L18"/>
     <mergeCell ref="B17:L17"/>
+    <mergeCell ref="F44:J44"/>
+    <mergeCell ref="D42:E44"/>
+    <mergeCell ref="B31:C33"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:J31"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="B35:C36"/>
+    <mergeCell ref="D38:E39"/>
+    <mergeCell ref="D40:E41"/>
+    <mergeCell ref="B38:C44"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D25:J25"/>
+    <mergeCell ref="D26:E27"/>
+    <mergeCell ref="B25:C27"/>
+    <mergeCell ref="B28:J28"/>
+    <mergeCell ref="B29:J29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7449,78 +7443,78 @@
   <sheetData>
     <row r="18" spans="2:13" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="19" spans="2:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="113" t="s">
+      <c r="B19" s="124" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="114"/>
-      <c r="D19" s="114"/>
-      <c r="E19" s="114"/>
-      <c r="F19" s="114"/>
-      <c r="G19" s="114"/>
-      <c r="H19" s="114"/>
-      <c r="I19" s="114"/>
-      <c r="J19" s="114"/>
-      <c r="K19" s="114"/>
-      <c r="L19" s="114"/>
-      <c r="M19" s="115"/>
+      <c r="C19" s="125"/>
+      <c r="D19" s="125"/>
+      <c r="E19" s="125"/>
+      <c r="F19" s="125"/>
+      <c r="G19" s="125"/>
+      <c r="H19" s="125"/>
+      <c r="I19" s="125"/>
+      <c r="J19" s="125"/>
+      <c r="K19" s="125"/>
+      <c r="L19" s="125"/>
+      <c r="M19" s="126"/>
     </row>
     <row r="20" spans="2:13" ht="18" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B20" s="43" t="s">
         <v>27</v>
       </c>
       <c r="C20" s="16"/>
-      <c r="D20" s="122" t="s">
+      <c r="D20" s="133" t="s">
         <v>28</v>
       </c>
-      <c r="E20" s="123"/>
-      <c r="F20" s="123"/>
-      <c r="G20" s="123"/>
-      <c r="H20" s="123"/>
-      <c r="I20" s="123"/>
-      <c r="J20" s="123"/>
-      <c r="K20" s="123"/>
-      <c r="L20" s="123"/>
-      <c r="M20" s="124"/>
+      <c r="E20" s="134"/>
+      <c r="F20" s="134"/>
+      <c r="G20" s="134"/>
+      <c r="H20" s="134"/>
+      <c r="I20" s="134"/>
+      <c r="J20" s="134"/>
+      <c r="K20" s="134"/>
+      <c r="L20" s="134"/>
+      <c r="M20" s="135"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B21" s="116" t="s">
+      <c r="B21" s="127" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="117"/>
-      <c r="D21" s="105" t="s">
+      <c r="C21" s="128"/>
+      <c r="D21" s="136" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="106"/>
-      <c r="F21" s="106"/>
-      <c r="G21" s="106"/>
-      <c r="H21" s="106"/>
-      <c r="I21" s="106"/>
-      <c r="J21" s="106"/>
-      <c r="K21" s="106"/>
-      <c r="L21" s="106"/>
-      <c r="M21" s="107"/>
+      <c r="E21" s="137"/>
+      <c r="F21" s="137"/>
+      <c r="G21" s="137"/>
+      <c r="H21" s="137"/>
+      <c r="I21" s="137"/>
+      <c r="J21" s="137"/>
+      <c r="K21" s="137"/>
+      <c r="L21" s="137"/>
+      <c r="M21" s="138"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B22" s="118"/>
-      <c r="C22" s="119"/>
-      <c r="D22" s="105" t="s">
+      <c r="B22" s="129"/>
+      <c r="C22" s="130"/>
+      <c r="D22" s="136" t="s">
         <v>37</v>
       </c>
-      <c r="E22" s="106"/>
-      <c r="F22" s="106"/>
-      <c r="G22" s="106"/>
-      <c r="H22" s="106"/>
-      <c r="I22" s="106"/>
-      <c r="J22" s="106"/>
-      <c r="K22" s="106"/>
-      <c r="L22" s="106"/>
-      <c r="M22" s="107"/>
+      <c r="E22" s="137"/>
+      <c r="F22" s="137"/>
+      <c r="G22" s="137"/>
+      <c r="H22" s="137"/>
+      <c r="I22" s="137"/>
+      <c r="J22" s="137"/>
+      <c r="K22" s="137"/>
+      <c r="L22" s="137"/>
+      <c r="M22" s="138"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B23" s="116" t="s">
+      <c r="B23" s="127" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="117"/>
+      <c r="C23" s="128"/>
       <c r="D23" s="20" t="s">
         <v>32</v>
       </c>
@@ -7535,26 +7529,26 @@
       <c r="M23" s="44"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B24" s="118"/>
-      <c r="C24" s="119"/>
-      <c r="D24" s="105" t="s">
+      <c r="B24" s="129"/>
+      <c r="C24" s="130"/>
+      <c r="D24" s="136" t="s">
         <v>33</v>
       </c>
-      <c r="E24" s="106"/>
-      <c r="F24" s="106"/>
-      <c r="G24" s="106"/>
-      <c r="H24" s="106"/>
-      <c r="I24" s="106"/>
-      <c r="J24" s="106"/>
-      <c r="K24" s="106"/>
-      <c r="L24" s="106"/>
-      <c r="M24" s="107"/>
+      <c r="E24" s="137"/>
+      <c r="F24" s="137"/>
+      <c r="G24" s="137"/>
+      <c r="H24" s="137"/>
+      <c r="I24" s="137"/>
+      <c r="J24" s="137"/>
+      <c r="K24" s="137"/>
+      <c r="L24" s="137"/>
+      <c r="M24" s="138"/>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B25" s="116" t="s">
+      <c r="B25" s="127" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="117"/>
+      <c r="C25" s="128"/>
       <c r="D25" s="20" t="s">
         <v>35</v>
       </c>
@@ -7569,33 +7563,33 @@
       <c r="M25" s="44"/>
     </row>
     <row r="26" spans="2:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="120"/>
-      <c r="C26" s="121"/>
-      <c r="D26" s="108" t="s">
+      <c r="B26" s="131"/>
+      <c r="C26" s="132"/>
+      <c r="D26" s="139" t="s">
         <v>36</v>
       </c>
-      <c r="E26" s="109"/>
-      <c r="F26" s="109"/>
-      <c r="G26" s="109"/>
-      <c r="H26" s="109"/>
-      <c r="I26" s="109"/>
-      <c r="J26" s="109"/>
-      <c r="K26" s="109"/>
-      <c r="L26" s="109"/>
-      <c r="M26" s="110"/>
+      <c r="E26" s="140"/>
+      <c r="F26" s="140"/>
+      <c r="G26" s="140"/>
+      <c r="H26" s="140"/>
+      <c r="I26" s="140"/>
+      <c r="J26" s="140"/>
+      <c r="K26" s="140"/>
+      <c r="L26" s="140"/>
+      <c r="M26" s="141"/>
     </row>
     <row r="27" spans="2:13" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="28" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B28" s="94" t="s">
+      <c r="B28" s="146" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="95"/>
-      <c r="D28" s="103" t="s">
+      <c r="C28" s="147"/>
+      <c r="D28" s="155" t="s">
         <v>146</v>
       </c>
-      <c r="E28" s="103"/>
-      <c r="F28" s="103"/>
-      <c r="G28" s="103"/>
+      <c r="E28" s="155"/>
+      <c r="F28" s="155"/>
+      <c r="G28" s="155"/>
       <c r="H28" s="45" t="s">
         <v>140</v>
       </c>
@@ -7613,14 +7607,14 @@
       </c>
     </row>
     <row r="29" spans="2:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="96"/>
-      <c r="C29" s="93"/>
-      <c r="D29" s="104" t="s">
+      <c r="B29" s="148"/>
+      <c r="C29" s="145"/>
+      <c r="D29" s="156" t="s">
         <v>147</v>
       </c>
-      <c r="E29" s="104"/>
-      <c r="F29" s="104"/>
-      <c r="G29" s="104"/>
+      <c r="E29" s="156"/>
+      <c r="F29" s="156"/>
+      <c r="G29" s="156"/>
       <c r="H29" s="49">
         <v>5</v>
       </c>
@@ -7638,173 +7632,165 @@
       </c>
     </row>
     <row r="30" spans="2:13" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="96"/>
-      <c r="C30" s="93"/>
-      <c r="D30" s="99" t="s">
+      <c r="B30" s="148"/>
+      <c r="C30" s="145"/>
+      <c r="D30" s="151" t="s">
         <v>212</v>
       </c>
-      <c r="E30" s="101" t="s">
+      <c r="E30" s="153" t="s">
         <v>213</v>
       </c>
-      <c r="F30" s="78"/>
-      <c r="G30" s="78"/>
-      <c r="H30" s="102"/>
-      <c r="I30" s="111" t="s">
+      <c r="F30" s="81"/>
+      <c r="G30" s="81"/>
+      <c r="H30" s="154"/>
+      <c r="I30" s="142" t="s">
         <v>214</v>
       </c>
-      <c r="J30" s="111"/>
-      <c r="K30" s="111">
+      <c r="J30" s="142"/>
+      <c r="K30" s="142">
         <v>-2</v>
       </c>
-      <c r="L30" s="112"/>
+      <c r="L30" s="143"/>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B31" s="96"/>
-      <c r="C31" s="93"/>
-      <c r="D31" s="100"/>
-      <c r="E31" s="63"/>
-      <c r="F31" s="64"/>
-      <c r="G31" s="64"/>
-      <c r="H31" s="65"/>
-      <c r="I31" s="66" t="s">
+      <c r="B31" s="148"/>
+      <c r="C31" s="145"/>
+      <c r="D31" s="152"/>
+      <c r="E31" s="69"/>
+      <c r="F31" s="70"/>
+      <c r="G31" s="70"/>
+      <c r="H31" s="71"/>
+      <c r="I31" s="72" t="s">
         <v>217</v>
       </c>
-      <c r="J31" s="66"/>
-      <c r="K31" s="66">
+      <c r="J31" s="72"/>
+      <c r="K31" s="72">
         <v>1</v>
       </c>
-      <c r="L31" s="91"/>
+      <c r="L31" s="144"/>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B32" s="96"/>
-      <c r="C32" s="93"/>
-      <c r="D32" s="93" t="s">
+      <c r="B32" s="148"/>
+      <c r="C32" s="145"/>
+      <c r="D32" s="145" t="s">
         <v>215</v>
       </c>
-      <c r="E32" s="66" t="s">
+      <c r="E32" s="72" t="s">
         <v>213</v>
       </c>
-      <c r="F32" s="66"/>
-      <c r="G32" s="66"/>
-      <c r="H32" s="66"/>
-      <c r="I32" s="69" t="s">
+      <c r="F32" s="72"/>
+      <c r="G32" s="72"/>
+      <c r="H32" s="72"/>
+      <c r="I32" s="86" t="s">
         <v>216</v>
       </c>
-      <c r="J32" s="66"/>
-      <c r="K32" s="66">
+      <c r="J32" s="72"/>
+      <c r="K32" s="72">
         <v>-1</v>
       </c>
-      <c r="L32" s="91"/>
+      <c r="L32" s="144"/>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B33" s="96"/>
-      <c r="C33" s="93"/>
-      <c r="D33" s="93"/>
-      <c r="E33" s="66"/>
-      <c r="F33" s="66"/>
-      <c r="G33" s="66"/>
-      <c r="H33" s="66"/>
-      <c r="I33" s="66" t="s">
+      <c r="B33" s="148"/>
+      <c r="C33" s="145"/>
+      <c r="D33" s="145"/>
+      <c r="E33" s="72"/>
+      <c r="F33" s="72"/>
+      <c r="G33" s="72"/>
+      <c r="H33" s="72"/>
+      <c r="I33" s="72" t="s">
         <v>217</v>
       </c>
-      <c r="J33" s="66"/>
-      <c r="K33" s="66">
+      <c r="J33" s="72"/>
+      <c r="K33" s="72">
         <v>5</v>
       </c>
-      <c r="L33" s="91"/>
+      <c r="L33" s="144"/>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B34" s="96"/>
-      <c r="C34" s="93"/>
-      <c r="D34" s="93" t="s">
+      <c r="B34" s="148"/>
+      <c r="C34" s="145"/>
+      <c r="D34" s="145" t="s">
         <v>218</v>
       </c>
-      <c r="E34" s="66" t="s">
+      <c r="E34" s="72" t="s">
         <v>219</v>
       </c>
-      <c r="F34" s="66"/>
-      <c r="G34" s="66"/>
-      <c r="H34" s="66"/>
-      <c r="I34" s="66" t="s">
+      <c r="F34" s="72"/>
+      <c r="G34" s="72"/>
+      <c r="H34" s="72"/>
+      <c r="I34" s="72" t="s">
         <v>214</v>
       </c>
-      <c r="J34" s="66"/>
-      <c r="K34" s="66">
+      <c r="J34" s="72"/>
+      <c r="K34" s="72">
         <v>-1</v>
       </c>
-      <c r="L34" s="91"/>
+      <c r="L34" s="144"/>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B35" s="96"/>
-      <c r="C35" s="93"/>
-      <c r="D35" s="93"/>
-      <c r="E35" s="66"/>
-      <c r="F35" s="66"/>
-      <c r="G35" s="66"/>
-      <c r="H35" s="66"/>
-      <c r="I35" s="66" t="s">
+      <c r="B35" s="148"/>
+      <c r="C35" s="145"/>
+      <c r="D35" s="145"/>
+      <c r="E35" s="72"/>
+      <c r="F35" s="72"/>
+      <c r="G35" s="72"/>
+      <c r="H35" s="72"/>
+      <c r="I35" s="72" t="s">
         <v>217</v>
       </c>
-      <c r="J35" s="66"/>
-      <c r="K35" s="66">
+      <c r="J35" s="72"/>
+      <c r="K35" s="72">
         <v>4</v>
       </c>
-      <c r="L35" s="91"/>
+      <c r="L35" s="144"/>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B36" s="96"/>
-      <c r="C36" s="93"/>
-      <c r="D36" s="88" t="s">
+      <c r="B36" s="148"/>
+      <c r="C36" s="145"/>
+      <c r="D36" s="157" t="s">
         <v>221</v>
       </c>
-      <c r="E36" s="66" t="s">
+      <c r="E36" s="72" t="s">
         <v>219</v>
       </c>
-      <c r="F36" s="66"/>
-      <c r="G36" s="66"/>
-      <c r="H36" s="66"/>
-      <c r="I36" s="66" t="s">
+      <c r="F36" s="72"/>
+      <c r="G36" s="72"/>
+      <c r="H36" s="72"/>
+      <c r="I36" s="72" t="s">
         <v>216</v>
       </c>
-      <c r="J36" s="66"/>
-      <c r="K36" s="66">
+      <c r="J36" s="72"/>
+      <c r="K36" s="72">
         <v>-2</v>
       </c>
-      <c r="L36" s="91"/>
+      <c r="L36" s="144"/>
     </row>
     <row r="37" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B37" s="97"/>
-      <c r="C37" s="98"/>
-      <c r="D37" s="89"/>
-      <c r="E37" s="90"/>
-      <c r="F37" s="90"/>
-      <c r="G37" s="90"/>
-      <c r="H37" s="90"/>
-      <c r="I37" s="90" t="s">
+      <c r="B37" s="149"/>
+      <c r="C37" s="150"/>
+      <c r="D37" s="158"/>
+      <c r="E37" s="159"/>
+      <c r="F37" s="159"/>
+      <c r="G37" s="159"/>
+      <c r="H37" s="159"/>
+      <c r="I37" s="159" t="s">
         <v>220</v>
       </c>
-      <c r="J37" s="90"/>
-      <c r="K37" s="90">
+      <c r="J37" s="159"/>
+      <c r="K37" s="159">
         <v>2</v>
       </c>
-      <c r="L37" s="92"/>
+      <c r="L37" s="160"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="B19:M19"/>
-    <mergeCell ref="B21:C22"/>
-    <mergeCell ref="B23:C24"/>
-    <mergeCell ref="B25:C26"/>
-    <mergeCell ref="D20:M20"/>
-    <mergeCell ref="D21:M21"/>
-    <mergeCell ref="D22:M22"/>
-    <mergeCell ref="D24:M24"/>
-    <mergeCell ref="D26:M26"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="E32:H33"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="E36:H37"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="K37:L37"/>
     <mergeCell ref="D32:D33"/>
     <mergeCell ref="I33:J33"/>
     <mergeCell ref="K33:L33"/>
@@ -7821,12 +7807,20 @@
     <mergeCell ref="K34:L34"/>
     <mergeCell ref="K35:L35"/>
     <mergeCell ref="E34:H35"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="E36:H37"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="E32:H33"/>
+    <mergeCell ref="B19:M19"/>
+    <mergeCell ref="B21:C22"/>
+    <mergeCell ref="B23:C24"/>
+    <mergeCell ref="B25:C26"/>
+    <mergeCell ref="D20:M20"/>
+    <mergeCell ref="D21:M21"/>
+    <mergeCell ref="D22:M22"/>
+    <mergeCell ref="D24:M24"/>
+    <mergeCell ref="D26:M26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7846,302 +7840,302 @@
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="19" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B19" s="93" t="s">
+      <c r="B19" s="145" t="s">
         <v>58</v>
       </c>
-      <c r="C19" s="93"/>
-      <c r="D19" s="93"/>
-      <c r="E19" s="93"/>
-      <c r="F19" s="93"/>
-      <c r="G19" s="93"/>
-      <c r="H19" s="93"/>
-      <c r="I19" s="93"/>
-      <c r="J19" s="93"/>
-      <c r="K19" s="93"/>
-      <c r="L19" s="93"/>
-      <c r="M19" s="93"/>
-      <c r="N19" s="93"/>
-      <c r="O19" s="93"/>
+      <c r="C19" s="145"/>
+      <c r="D19" s="145"/>
+      <c r="E19" s="145"/>
+      <c r="F19" s="145"/>
+      <c r="G19" s="145"/>
+      <c r="H19" s="145"/>
+      <c r="I19" s="145"/>
+      <c r="J19" s="145"/>
+      <c r="K19" s="145"/>
+      <c r="L19" s="145"/>
+      <c r="M19" s="145"/>
+      <c r="N19" s="145"/>
+      <c r="O19" s="145"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B20" s="20" t="s">
         <v>27</v>
       </c>
       <c r="C20" s="20"/>
-      <c r="D20" s="76" t="s">
+      <c r="D20" s="79" t="s">
         <v>59</v>
       </c>
-      <c r="E20" s="76"/>
-      <c r="F20" s="76"/>
-      <c r="G20" s="76"/>
-      <c r="H20" s="76"/>
-      <c r="I20" s="76"/>
-      <c r="J20" s="76"/>
-      <c r="K20" s="76"/>
-      <c r="L20" s="76"/>
-      <c r="M20" s="76"/>
-      <c r="N20" s="76"/>
-      <c r="O20" s="76"/>
+      <c r="E20" s="79"/>
+      <c r="F20" s="79"/>
+      <c r="G20" s="79"/>
+      <c r="H20" s="79"/>
+      <c r="I20" s="79"/>
+      <c r="J20" s="79"/>
+      <c r="K20" s="79"/>
+      <c r="L20" s="79"/>
+      <c r="M20" s="79"/>
+      <c r="N20" s="79"/>
+      <c r="O20" s="79"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B21" s="66" t="s">
+      <c r="B21" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="C21" s="66"/>
-      <c r="D21" s="76" t="s">
+      <c r="C21" s="72"/>
+      <c r="D21" s="79" t="s">
         <v>61</v>
       </c>
-      <c r="E21" s="76"/>
-      <c r="F21" s="76"/>
-      <c r="G21" s="76"/>
-      <c r="H21" s="76"/>
-      <c r="I21" s="76"/>
-      <c r="J21" s="76"/>
-      <c r="K21" s="76"/>
-      <c r="L21" s="76"/>
-      <c r="M21" s="76"/>
-      <c r="N21" s="76"/>
-      <c r="O21" s="76"/>
+      <c r="E21" s="79"/>
+      <c r="F21" s="79"/>
+      <c r="G21" s="79"/>
+      <c r="H21" s="79"/>
+      <c r="I21" s="79"/>
+      <c r="J21" s="79"/>
+      <c r="K21" s="79"/>
+      <c r="L21" s="79"/>
+      <c r="M21" s="79"/>
+      <c r="N21" s="79"/>
+      <c r="O21" s="79"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B22" s="66"/>
-      <c r="C22" s="66"/>
-      <c r="D22" s="66" t="s">
+      <c r="B22" s="72"/>
+      <c r="C22" s="72"/>
+      <c r="D22" s="72" t="s">
         <v>183</v>
       </c>
-      <c r="E22" s="66"/>
-      <c r="F22" s="66"/>
-      <c r="G22" s="66" t="s">
+      <c r="E22" s="72"/>
+      <c r="F22" s="72"/>
+      <c r="G22" s="72" t="s">
         <v>187</v>
       </c>
-      <c r="H22" s="66"/>
-      <c r="I22" s="66"/>
-      <c r="J22" s="66" t="s">
+      <c r="H22" s="72"/>
+      <c r="I22" s="72"/>
+      <c r="J22" s="72" t="s">
         <v>184</v>
       </c>
-      <c r="K22" s="66"/>
-      <c r="L22" s="66"/>
-      <c r="M22" s="66" t="s">
+      <c r="K22" s="72"/>
+      <c r="L22" s="72"/>
+      <c r="M22" s="72" t="s">
         <v>185</v>
       </c>
-      <c r="N22" s="66"/>
-      <c r="O22" s="66"/>
+      <c r="N22" s="72"/>
+      <c r="O22" s="72"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B23" s="66"/>
-      <c r="C23" s="66"/>
-      <c r="D23" s="66" t="s">
+      <c r="B23" s="72"/>
+      <c r="C23" s="72"/>
+      <c r="D23" s="72" t="s">
         <v>186</v>
       </c>
-      <c r="E23" s="66"/>
-      <c r="F23" s="66"/>
-      <c r="G23" s="66" t="s">
+      <c r="E23" s="72"/>
+      <c r="F23" s="72"/>
+      <c r="G23" s="72" t="s">
         <v>189</v>
       </c>
-      <c r="H23" s="66"/>
-      <c r="I23" s="66"/>
-      <c r="J23" s="66" t="s">
+      <c r="H23" s="72"/>
+      <c r="I23" s="72"/>
+      <c r="J23" s="72" t="s">
         <v>188</v>
       </c>
-      <c r="K23" s="66"/>
-      <c r="L23" s="66"/>
-      <c r="M23" s="126" t="s">
+      <c r="K23" s="72"/>
+      <c r="L23" s="72"/>
+      <c r="M23" s="162" t="s">
         <v>208</v>
       </c>
-      <c r="N23" s="66"/>
-      <c r="O23" s="66"/>
+      <c r="N23" s="72"/>
+      <c r="O23" s="72"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B24" s="125" t="s">
+      <c r="B24" s="161" t="s">
         <v>62</v>
       </c>
-      <c r="C24" s="125"/>
-      <c r="D24" s="76" t="s">
+      <c r="C24" s="161"/>
+      <c r="D24" s="79" t="s">
         <v>196</v>
       </c>
-      <c r="E24" s="76"/>
-      <c r="F24" s="76"/>
-      <c r="G24" s="76"/>
-      <c r="H24" s="76"/>
-      <c r="I24" s="76"/>
-      <c r="J24" s="76"/>
-      <c r="K24" s="76"/>
-      <c r="L24" s="76"/>
-      <c r="M24" s="76"/>
-      <c r="N24" s="76"/>
-      <c r="O24" s="76"/>
+      <c r="E24" s="79"/>
+      <c r="F24" s="79"/>
+      <c r="G24" s="79"/>
+      <c r="H24" s="79"/>
+      <c r="I24" s="79"/>
+      <c r="J24" s="79"/>
+      <c r="K24" s="79"/>
+      <c r="L24" s="79"/>
+      <c r="M24" s="79"/>
+      <c r="N24" s="79"/>
+      <c r="O24" s="79"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B25" s="125"/>
-      <c r="C25" s="125"/>
-      <c r="D25" s="66" t="s">
+      <c r="B25" s="161"/>
+      <c r="C25" s="161"/>
+      <c r="D25" s="72" t="s">
         <v>190</v>
       </c>
-      <c r="E25" s="66"/>
-      <c r="F25" s="66"/>
-      <c r="G25" s="66" t="s">
+      <c r="E25" s="72"/>
+      <c r="F25" s="72"/>
+      <c r="G25" s="72" t="s">
         <v>142</v>
       </c>
-      <c r="H25" s="66"/>
-      <c r="I25" s="66"/>
-      <c r="J25" s="66" t="s">
+      <c r="H25" s="72"/>
+      <c r="I25" s="72"/>
+      <c r="J25" s="72" t="s">
         <v>143</v>
       </c>
-      <c r="K25" s="66"/>
-      <c r="L25" s="66"/>
-      <c r="M25" s="66" t="s">
+      <c r="K25" s="72"/>
+      <c r="L25" s="72"/>
+      <c r="M25" s="72" t="s">
         <v>144</v>
       </c>
-      <c r="N25" s="66"/>
-      <c r="O25" s="66"/>
+      <c r="N25" s="72"/>
+      <c r="O25" s="72"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B26" s="125"/>
-      <c r="C26" s="125"/>
-      <c r="D26" s="66" t="s">
+      <c r="B26" s="161"/>
+      <c r="C26" s="161"/>
+      <c r="D26" s="72" t="s">
         <v>194</v>
       </c>
-      <c r="E26" s="66"/>
-      <c r="F26" s="66"/>
-      <c r="G26" s="66" t="s">
+      <c r="E26" s="72"/>
+      <c r="F26" s="72"/>
+      <c r="G26" s="72" t="s">
         <v>191</v>
       </c>
-      <c r="H26" s="66"/>
-      <c r="I26" s="66"/>
-      <c r="J26" s="66" t="s">
+      <c r="H26" s="72"/>
+      <c r="I26" s="72"/>
+      <c r="J26" s="72" t="s">
         <v>192</v>
       </c>
-      <c r="K26" s="66"/>
-      <c r="L26" s="66"/>
-      <c r="M26" s="66" t="s">
+      <c r="K26" s="72"/>
+      <c r="L26" s="72"/>
+      <c r="M26" s="72" t="s">
         <v>193</v>
       </c>
-      <c r="N26" s="66"/>
-      <c r="O26" s="66"/>
+      <c r="N26" s="72"/>
+      <c r="O26" s="72"/>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B27" s="125" t="s">
+      <c r="B27" s="161" t="s">
         <v>195</v>
       </c>
-      <c r="C27" s="125"/>
-      <c r="D27" s="76" t="s">
+      <c r="C27" s="161"/>
+      <c r="D27" s="79" t="s">
         <v>197</v>
       </c>
-      <c r="E27" s="76"/>
-      <c r="F27" s="76"/>
-      <c r="G27" s="76"/>
-      <c r="H27" s="76"/>
-      <c r="I27" s="76"/>
-      <c r="J27" s="76"/>
-      <c r="K27" s="76"/>
-      <c r="L27" s="76"/>
-      <c r="M27" s="76"/>
-      <c r="N27" s="76"/>
-      <c r="O27" s="76"/>
+      <c r="E27" s="79"/>
+      <c r="F27" s="79"/>
+      <c r="G27" s="79"/>
+      <c r="H27" s="79"/>
+      <c r="I27" s="79"/>
+      <c r="J27" s="79"/>
+      <c r="K27" s="79"/>
+      <c r="L27" s="79"/>
+      <c r="M27" s="79"/>
+      <c r="N27" s="79"/>
+      <c r="O27" s="79"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B28" s="125"/>
-      <c r="C28" s="125"/>
-      <c r="D28" s="66" t="s">
+      <c r="B28" s="161"/>
+      <c r="C28" s="161"/>
+      <c r="D28" s="72" t="s">
         <v>198</v>
       </c>
-      <c r="E28" s="66"/>
-      <c r="F28" s="66"/>
-      <c r="G28" s="66" t="s">
+      <c r="E28" s="72"/>
+      <c r="F28" s="72"/>
+      <c r="G28" s="72" t="s">
         <v>200</v>
       </c>
-      <c r="H28" s="66"/>
-      <c r="I28" s="66"/>
-      <c r="J28" s="66" t="s">
+      <c r="H28" s="72"/>
+      <c r="I28" s="72"/>
+      <c r="J28" s="72" t="s">
         <v>184</v>
       </c>
-      <c r="K28" s="66"/>
-      <c r="L28" s="66"/>
-      <c r="M28" s="66" t="s">
+      <c r="K28" s="72"/>
+      <c r="L28" s="72"/>
+      <c r="M28" s="72" t="s">
         <v>199</v>
       </c>
-      <c r="N28" s="66"/>
-      <c r="O28" s="66"/>
+      <c r="N28" s="72"/>
+      <c r="O28" s="72"/>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B29" s="125" t="s">
+      <c r="B29" s="161" t="s">
         <v>63</v>
       </c>
-      <c r="C29" s="125"/>
-      <c r="D29" s="66" t="s">
+      <c r="C29" s="161"/>
+      <c r="D29" s="72" t="s">
         <v>201</v>
       </c>
-      <c r="E29" s="66"/>
-      <c r="F29" s="66"/>
-      <c r="G29" s="66"/>
-      <c r="H29" s="66"/>
-      <c r="I29" s="66"/>
-      <c r="J29" s="66"/>
-      <c r="K29" s="66"/>
-      <c r="L29" s="66"/>
-      <c r="M29" s="66"/>
-      <c r="N29" s="66"/>
-      <c r="O29" s="66"/>
+      <c r="E29" s="72"/>
+      <c r="F29" s="72"/>
+      <c r="G29" s="72"/>
+      <c r="H29" s="72"/>
+      <c r="I29" s="72"/>
+      <c r="J29" s="72"/>
+      <c r="K29" s="72"/>
+      <c r="L29" s="72"/>
+      <c r="M29" s="72"/>
+      <c r="N29" s="72"/>
+      <c r="O29" s="72"/>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B30" s="125"/>
-      <c r="C30" s="125"/>
-      <c r="D30" s="66" t="s">
+      <c r="B30" s="161"/>
+      <c r="C30" s="161"/>
+      <c r="D30" s="72" t="s">
         <v>202</v>
       </c>
-      <c r="E30" s="66"/>
-      <c r="F30" s="66"/>
-      <c r="G30" s="66"/>
-      <c r="H30" s="66"/>
-      <c r="I30" s="66"/>
-      <c r="J30" s="66"/>
-      <c r="K30" s="66"/>
-      <c r="L30" s="66"/>
-      <c r="M30" s="66"/>
-      <c r="N30" s="66"/>
-      <c r="O30" s="66"/>
+      <c r="E30" s="72"/>
+      <c r="F30" s="72"/>
+      <c r="G30" s="72"/>
+      <c r="H30" s="72"/>
+      <c r="I30" s="72"/>
+      <c r="J30" s="72"/>
+      <c r="K30" s="72"/>
+      <c r="L30" s="72"/>
+      <c r="M30" s="72"/>
+      <c r="N30" s="72"/>
+      <c r="O30" s="72"/>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B31" s="125"/>
-      <c r="C31" s="125"/>
-      <c r="D31" s="66" t="s">
+      <c r="B31" s="161"/>
+      <c r="C31" s="161"/>
+      <c r="D31" s="72" t="s">
         <v>203</v>
       </c>
-      <c r="E31" s="66"/>
-      <c r="F31" s="66"/>
-      <c r="G31" s="66"/>
-      <c r="H31" s="66"/>
-      <c r="I31" s="66"/>
-      <c r="J31" s="66"/>
-      <c r="K31" s="66"/>
-      <c r="L31" s="66"/>
-      <c r="M31" s="66"/>
-      <c r="N31" s="66"/>
-      <c r="O31" s="66"/>
+      <c r="E31" s="72"/>
+      <c r="F31" s="72"/>
+      <c r="G31" s="72"/>
+      <c r="H31" s="72"/>
+      <c r="I31" s="72"/>
+      <c r="J31" s="72"/>
+      <c r="K31" s="72"/>
+      <c r="L31" s="72"/>
+      <c r="M31" s="72"/>
+      <c r="N31" s="72"/>
+      <c r="O31" s="72"/>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B32" s="125"/>
-      <c r="C32" s="125"/>
-      <c r="D32" s="66" t="s">
+      <c r="B32" s="161"/>
+      <c r="C32" s="161"/>
+      <c r="D32" s="72" t="s">
         <v>204</v>
       </c>
-      <c r="E32" s="66"/>
-      <c r="F32" s="66"/>
-      <c r="G32" s="66" t="s">
+      <c r="E32" s="72"/>
+      <c r="F32" s="72"/>
+      <c r="G32" s="72" t="s">
         <v>191</v>
       </c>
-      <c r="H32" s="66"/>
-      <c r="I32" s="66"/>
-      <c r="J32" s="66" t="s">
+      <c r="H32" s="72"/>
+      <c r="I32" s="72"/>
+      <c r="J32" s="72" t="s">
         <v>184</v>
       </c>
-      <c r="K32" s="66"/>
-      <c r="L32" s="66"/>
-      <c r="M32" s="66" t="s">
+      <c r="K32" s="72"/>
+      <c r="L32" s="72"/>
+      <c r="M32" s="72" t="s">
         <v>205</v>
       </c>
-      <c r="N32" s="66"/>
-      <c r="O32" s="66"/>
+      <c r="N32" s="72"/>
+      <c r="O32" s="72"/>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B34" s="36"/>
@@ -8225,26 +8219,6 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="B29:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:O32"/>
-    <mergeCell ref="D29:O29"/>
-    <mergeCell ref="D31:O31"/>
-    <mergeCell ref="D30:O30"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="M28:O28"/>
-    <mergeCell ref="B27:C28"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M25:O25"/>
     <mergeCell ref="B19:O19"/>
     <mergeCell ref="D20:O20"/>
     <mergeCell ref="D21:O21"/>
@@ -8261,6 +8235,26 @@
     <mergeCell ref="J26:L26"/>
     <mergeCell ref="M26:O26"/>
     <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="B27:C28"/>
+    <mergeCell ref="B29:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:O32"/>
+    <mergeCell ref="D29:O29"/>
+    <mergeCell ref="D31:O31"/>
+    <mergeCell ref="D30:O30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8281,95 +8275,95 @@
   <sheetData>
     <row r="18" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="19" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B19" s="94" t="s">
+      <c r="B19" s="146" t="s">
         <v>64</v>
       </c>
-      <c r="C19" s="95"/>
-      <c r="D19" s="95"/>
-      <c r="E19" s="95"/>
-      <c r="F19" s="95"/>
-      <c r="G19" s="95"/>
-      <c r="H19" s="95"/>
-      <c r="I19" s="95"/>
-      <c r="J19" s="95"/>
-      <c r="K19" s="95"/>
-      <c r="L19" s="127"/>
+      <c r="C19" s="147"/>
+      <c r="D19" s="147"/>
+      <c r="E19" s="147"/>
+      <c r="F19" s="147"/>
+      <c r="G19" s="147"/>
+      <c r="H19" s="147"/>
+      <c r="I19" s="147"/>
+      <c r="J19" s="147"/>
+      <c r="K19" s="147"/>
+      <c r="L19" s="163"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B20" s="128" t="s">
+      <c r="B20" s="164" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="129"/>
-      <c r="D20" s="66" t="s">
+      <c r="C20" s="165"/>
+      <c r="D20" s="72" t="s">
         <v>65</v>
       </c>
-      <c r="E20" s="66"/>
-      <c r="F20" s="66"/>
-      <c r="G20" s="66"/>
-      <c r="H20" s="66"/>
-      <c r="I20" s="66"/>
-      <c r="J20" s="66"/>
-      <c r="K20" s="66"/>
-      <c r="L20" s="91"/>
+      <c r="E20" s="72"/>
+      <c r="F20" s="72"/>
+      <c r="G20" s="72"/>
+      <c r="H20" s="72"/>
+      <c r="I20" s="72"/>
+      <c r="J20" s="72"/>
+      <c r="K20" s="72"/>
+      <c r="L20" s="144"/>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B21" s="130" t="s">
+      <c r="B21" s="166" t="s">
         <v>66</v>
       </c>
-      <c r="C21" s="125"/>
-      <c r="D21" s="66" t="s">
+      <c r="C21" s="161"/>
+      <c r="D21" s="72" t="s">
         <v>67</v>
       </c>
-      <c r="E21" s="66"/>
-      <c r="F21" s="66"/>
-      <c r="G21" s="66"/>
-      <c r="H21" s="66"/>
-      <c r="I21" s="66"/>
-      <c r="J21" s="66"/>
-      <c r="K21" s="66"/>
-      <c r="L21" s="91"/>
+      <c r="E21" s="72"/>
+      <c r="F21" s="72"/>
+      <c r="G21" s="72"/>
+      <c r="H21" s="72"/>
+      <c r="I21" s="72"/>
+      <c r="J21" s="72"/>
+      <c r="K21" s="72"/>
+      <c r="L21" s="144"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B22" s="130"/>
-      <c r="C22" s="125"/>
-      <c r="D22" s="66" t="s">
+      <c r="B22" s="166"/>
+      <c r="C22" s="161"/>
+      <c r="D22" s="72" t="s">
         <v>184</v>
       </c>
-      <c r="E22" s="66"/>
-      <c r="F22" s="66" t="s">
+      <c r="E22" s="72"/>
+      <c r="F22" s="72" t="s">
         <v>206</v>
       </c>
-      <c r="G22" s="66"/>
-      <c r="H22" s="66" t="s">
+      <c r="G22" s="72"/>
+      <c r="H22" s="72" t="s">
         <v>211</v>
       </c>
-      <c r="I22" s="66"/>
-      <c r="J22" s="66" t="s">
+      <c r="I22" s="72"/>
+      <c r="J22" s="72" t="s">
         <v>207</v>
       </c>
-      <c r="K22" s="66"/>
-      <c r="L22" s="91"/>
+      <c r="K22" s="72"/>
+      <c r="L22" s="144"/>
     </row>
     <row r="23" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="131"/>
-      <c r="C23" s="132"/>
-      <c r="D23" s="90" t="s">
+      <c r="B23" s="167"/>
+      <c r="C23" s="168"/>
+      <c r="D23" s="159" t="s">
         <v>209</v>
       </c>
-      <c r="E23" s="90"/>
-      <c r="F23" s="90" t="s">
+      <c r="E23" s="159"/>
+      <c r="F23" s="159" t="s">
         <v>187</v>
       </c>
-      <c r="G23" s="90"/>
-      <c r="H23" s="90" t="s">
+      <c r="G23" s="159"/>
+      <c r="H23" s="159" t="s">
         <v>210</v>
       </c>
-      <c r="I23" s="90"/>
-      <c r="J23" s="90">
+      <c r="I23" s="159"/>
+      <c r="J23" s="159">
         <v>1</v>
       </c>
-      <c r="K23" s="90"/>
-      <c r="L23" s="92"/>
+      <c r="K23" s="159"/>
+      <c r="L23" s="160"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -8405,21 +8399,21 @@
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A1" s="150" t="s">
+      <c r="A1" s="171" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="151"/>
-      <c r="C1" s="151"/>
-      <c r="D1" s="151"/>
-      <c r="E1" s="151"/>
-      <c r="F1" s="151"/>
-      <c r="G1" s="152"/>
+      <c r="B1" s="172"/>
+      <c r="C1" s="172"/>
+      <c r="D1" s="172"/>
+      <c r="E1" s="172"/>
+      <c r="F1" s="172"/>
+      <c r="G1" s="173"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A2" s="149" t="s">
+      <c r="A2" s="169" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="138"/>
+      <c r="B2" s="170"/>
       <c r="C2" s="25" t="s">
         <v>70</v>
       </c>
@@ -8437,10 +8431,10 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A3" s="149" t="s">
+      <c r="A3" s="169" t="s">
         <v>75</v>
       </c>
-      <c r="B3" s="138"/>
+      <c r="B3" s="170"/>
       <c r="C3" s="25">
         <v>10</v>
       </c>
@@ -8458,10 +8452,10 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A4" s="149" t="s">
+      <c r="A4" s="169" t="s">
         <v>76</v>
       </c>
-      <c r="B4" s="138"/>
+      <c r="B4" s="170"/>
       <c r="C4" s="25">
         <v>10</v>
       </c>
@@ -8479,10 +8473,10 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A5" s="149" t="s">
+      <c r="A5" s="169" t="s">
         <v>77</v>
       </c>
-      <c r="B5" s="138"/>
+      <c r="B5" s="170"/>
       <c r="C5" s="25">
         <v>5</v>
       </c>
@@ -8500,10 +8494,10 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A6" s="149" t="s">
+      <c r="A6" s="169" t="s">
         <v>78</v>
       </c>
-      <c r="B6" s="138"/>
+      <c r="B6" s="170"/>
       <c r="C6" s="25">
         <v>1</v>
       </c>
@@ -8521,10 +8515,10 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A7" s="149" t="s">
+      <c r="A7" s="169" t="s">
         <v>79</v>
       </c>
-      <c r="B7" s="138"/>
+      <c r="B7" s="170"/>
       <c r="C7" s="25">
         <v>1</v>
       </c>
@@ -8542,10 +8536,10 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A8" s="149" t="s">
+      <c r="A8" s="169" t="s">
         <v>80</v>
       </c>
-      <c r="B8" s="138"/>
+      <c r="B8" s="170"/>
       <c r="C8" s="25">
         <v>2</v>
       </c>
@@ -8563,10 +8557,10 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A9" s="149" t="s">
+      <c r="A9" s="169" t="s">
         <v>81</v>
       </c>
-      <c r="B9" s="138"/>
+      <c r="B9" s="170"/>
       <c r="C9" s="25">
         <v>0</v>
       </c>
@@ -8584,10 +8578,10 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A10" s="149" t="s">
+      <c r="A10" s="169" t="s">
         <v>83</v>
       </c>
-      <c r="B10" s="138"/>
+      <c r="B10" s="170"/>
       <c r="C10" s="25">
         <v>0</v>
       </c>
@@ -8605,10 +8599,10 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A11" s="149" t="s">
+      <c r="A11" s="169" t="s">
         <v>84</v>
       </c>
-      <c r="B11" s="138"/>
+      <c r="B11" s="170"/>
       <c r="C11" s="25">
         <v>0</v>
       </c>
@@ -8626,10 +8620,10 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A12" s="149" t="s">
+      <c r="A12" s="169" t="s">
         <v>85</v>
       </c>
-      <c r="B12" s="138"/>
+      <c r="B12" s="170"/>
       <c r="C12" s="25">
         <v>100</v>
       </c>
@@ -8647,10 +8641,10 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="147" t="s">
+      <c r="A13" s="174" t="s">
         <v>86</v>
       </c>
-      <c r="B13" s="148"/>
+      <c r="B13" s="175"/>
       <c r="C13" s="28">
         <v>1</v>
       </c>
@@ -8668,93 +8662,93 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A17" s="146" t="s">
+      <c r="A17" s="176" t="s">
         <v>87</v>
       </c>
-      <c r="B17" s="146"/>
-      <c r="C17" s="146"/>
-      <c r="D17" s="146"/>
-      <c r="E17" s="146"/>
-      <c r="F17" s="146"/>
-      <c r="G17" s="146"/>
+      <c r="B17" s="176"/>
+      <c r="C17" s="176"/>
+      <c r="D17" s="176"/>
+      <c r="E17" s="176"/>
+      <c r="F17" s="176"/>
+      <c r="G17" s="176"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A18" s="138" t="s">
+      <c r="A18" s="170" t="s">
         <v>88</v>
       </c>
-      <c r="B18" s="138"/>
-      <c r="C18" s="138" t="s">
+      <c r="B18" s="170"/>
+      <c r="C18" s="170" t="s">
         <v>89</v>
       </c>
-      <c r="D18" s="138"/>
-      <c r="E18" s="138"/>
-      <c r="F18" s="138"/>
-      <c r="G18" s="138"/>
+      <c r="D18" s="170"/>
+      <c r="E18" s="170"/>
+      <c r="F18" s="170"/>
+      <c r="G18" s="170"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A19" s="138" t="s">
+      <c r="A19" s="170" t="s">
         <v>90</v>
       </c>
-      <c r="B19" s="138"/>
-      <c r="C19" s="138" t="s">
+      <c r="B19" s="170"/>
+      <c r="C19" s="170" t="s">
         <v>91</v>
       </c>
-      <c r="D19" s="138"/>
-      <c r="E19" s="138"/>
-      <c r="F19" s="138"/>
-      <c r="G19" s="138"/>
+      <c r="D19" s="170"/>
+      <c r="E19" s="170"/>
+      <c r="F19" s="170"/>
+      <c r="G19" s="170"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A20" s="138" t="s">
+      <c r="A20" s="170" t="s">
         <v>92</v>
       </c>
-      <c r="B20" s="138"/>
-      <c r="C20" s="138" t="s">
+      <c r="B20" s="170"/>
+      <c r="C20" s="170" t="s">
         <v>93</v>
       </c>
-      <c r="D20" s="138"/>
-      <c r="E20" s="138"/>
-      <c r="F20" s="138"/>
-      <c r="G20" s="138"/>
+      <c r="D20" s="170"/>
+      <c r="E20" s="170"/>
+      <c r="F20" s="170"/>
+      <c r="G20" s="170"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A21" s="138" t="s">
+      <c r="A21" s="170" t="s">
         <v>94</v>
       </c>
-      <c r="B21" s="138"/>
-      <c r="C21" s="138" t="s">
+      <c r="B21" s="170"/>
+      <c r="C21" s="170" t="s">
         <v>95</v>
       </c>
-      <c r="D21" s="138"/>
-      <c r="E21" s="138"/>
-      <c r="F21" s="138"/>
-      <c r="G21" s="138"/>
+      <c r="D21" s="170"/>
+      <c r="E21" s="170"/>
+      <c r="F21" s="170"/>
+      <c r="G21" s="170"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A22" s="138" t="s">
+      <c r="A22" s="170" t="s">
         <v>96</v>
       </c>
-      <c r="B22" s="138"/>
-      <c r="C22" s="138" t="s">
+      <c r="B22" s="170"/>
+      <c r="C22" s="170" t="s">
         <v>97</v>
       </c>
-      <c r="D22" s="138"/>
-      <c r="E22" s="138"/>
-      <c r="F22" s="138"/>
-      <c r="G22" s="138"/>
+      <c r="D22" s="170"/>
+      <c r="E22" s="170"/>
+      <c r="F22" s="170"/>
+      <c r="G22" s="170"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A23" s="138" t="s">
+      <c r="A23" s="170" t="s">
         <v>98</v>
       </c>
-      <c r="B23" s="138"/>
-      <c r="C23" s="138" t="s">
+      <c r="B23" s="170"/>
+      <c r="C23" s="170" t="s">
         <v>99</v>
       </c>
-      <c r="D23" s="138"/>
-      <c r="E23" s="138"/>
-      <c r="F23" s="138"/>
-      <c r="G23" s="138"/>
+      <c r="D23" s="170"/>
+      <c r="E23" s="170"/>
+      <c r="F23" s="170"/>
+      <c r="G23" s="170"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24" s="30"/>
@@ -8776,139 +8770,139 @@
     </row>
     <row r="26" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="27" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A27" s="133" t="s">
+      <c r="A27" s="177" t="s">
         <v>100</v>
       </c>
-      <c r="B27" s="134"/>
-      <c r="C27" s="134"/>
-      <c r="D27" s="134"/>
-      <c r="E27" s="134"/>
-      <c r="F27" s="134"/>
-      <c r="G27" s="135"/>
+      <c r="B27" s="178"/>
+      <c r="C27" s="178"/>
+      <c r="D27" s="178"/>
+      <c r="E27" s="178"/>
+      <c r="F27" s="178"/>
+      <c r="G27" s="179"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A28" s="136" t="s">
+      <c r="A28" s="180" t="s">
         <v>101</v>
       </c>
-      <c r="B28" s="66"/>
-      <c r="C28" s="60" t="s">
+      <c r="B28" s="72"/>
+      <c r="C28" s="66" t="s">
         <v>102</v>
       </c>
-      <c r="D28" s="61"/>
-      <c r="E28" s="61"/>
-      <c r="F28" s="61"/>
-      <c r="G28" s="140"/>
+      <c r="D28" s="67"/>
+      <c r="E28" s="67"/>
+      <c r="F28" s="67"/>
+      <c r="G28" s="181"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A29" s="136"/>
-      <c r="B29" s="66"/>
-      <c r="C29" s="101"/>
-      <c r="D29" s="78"/>
-      <c r="E29" s="78"/>
-      <c r="F29" s="78"/>
-      <c r="G29" s="141"/>
+      <c r="A29" s="180"/>
+      <c r="B29" s="72"/>
+      <c r="C29" s="153"/>
+      <c r="D29" s="81"/>
+      <c r="E29" s="81"/>
+      <c r="F29" s="81"/>
+      <c r="G29" s="182"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A30" s="136"/>
-      <c r="B30" s="66"/>
-      <c r="C30" s="63"/>
-      <c r="D30" s="64"/>
-      <c r="E30" s="64"/>
-      <c r="F30" s="64"/>
-      <c r="G30" s="142"/>
+      <c r="A30" s="180"/>
+      <c r="B30" s="72"/>
+      <c r="C30" s="69"/>
+      <c r="D30" s="70"/>
+      <c r="E30" s="70"/>
+      <c r="F30" s="70"/>
+      <c r="G30" s="183"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A31" s="136" t="s">
+      <c r="A31" s="180" t="s">
         <v>103</v>
       </c>
-      <c r="B31" s="66"/>
-      <c r="C31" s="60" t="s">
+      <c r="B31" s="72"/>
+      <c r="C31" s="66" t="s">
         <v>104</v>
       </c>
-      <c r="D31" s="61"/>
-      <c r="E31" s="61"/>
-      <c r="F31" s="61"/>
-      <c r="G31" s="140"/>
+      <c r="D31" s="67"/>
+      <c r="E31" s="67"/>
+      <c r="F31" s="67"/>
+      <c r="G31" s="181"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A32" s="136"/>
-      <c r="B32" s="66"/>
-      <c r="C32" s="101"/>
-      <c r="D32" s="78"/>
-      <c r="E32" s="78"/>
-      <c r="F32" s="78"/>
-      <c r="G32" s="141"/>
+      <c r="A32" s="180"/>
+      <c r="B32" s="72"/>
+      <c r="C32" s="153"/>
+      <c r="D32" s="81"/>
+      <c r="E32" s="81"/>
+      <c r="F32" s="81"/>
+      <c r="G32" s="182"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A33" s="136"/>
-      <c r="B33" s="66"/>
-      <c r="C33" s="63"/>
-      <c r="D33" s="64"/>
-      <c r="E33" s="64"/>
-      <c r="F33" s="64"/>
-      <c r="G33" s="142"/>
+      <c r="A33" s="180"/>
+      <c r="B33" s="72"/>
+      <c r="C33" s="69"/>
+      <c r="D33" s="70"/>
+      <c r="E33" s="70"/>
+      <c r="F33" s="70"/>
+      <c r="G33" s="183"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A34" s="136" t="s">
+      <c r="A34" s="180" t="s">
         <v>105</v>
       </c>
-      <c r="B34" s="66"/>
-      <c r="C34" s="60" t="s">
+      <c r="B34" s="72"/>
+      <c r="C34" s="66" t="s">
         <v>102</v>
       </c>
-      <c r="D34" s="61"/>
-      <c r="E34" s="61"/>
-      <c r="F34" s="61"/>
-      <c r="G34" s="140"/>
+      <c r="D34" s="67"/>
+      <c r="E34" s="67"/>
+      <c r="F34" s="67"/>
+      <c r="G34" s="181"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A35" s="136"/>
-      <c r="B35" s="66"/>
-      <c r="C35" s="101"/>
-      <c r="D35" s="78"/>
-      <c r="E35" s="78"/>
-      <c r="F35" s="78"/>
-      <c r="G35" s="141"/>
+      <c r="A35" s="180"/>
+      <c r="B35" s="72"/>
+      <c r="C35" s="153"/>
+      <c r="D35" s="81"/>
+      <c r="E35" s="81"/>
+      <c r="F35" s="81"/>
+      <c r="G35" s="182"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A36" s="136"/>
-      <c r="B36" s="66"/>
-      <c r="C36" s="63"/>
-      <c r="D36" s="64"/>
-      <c r="E36" s="64"/>
-      <c r="F36" s="64"/>
-      <c r="G36" s="142"/>
+      <c r="A36" s="180"/>
+      <c r="B36" s="72"/>
+      <c r="C36" s="69"/>
+      <c r="D36" s="70"/>
+      <c r="E36" s="70"/>
+      <c r="F36" s="70"/>
+      <c r="G36" s="183"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A37" s="136" t="s">
+      <c r="A37" s="180" t="s">
         <v>106</v>
       </c>
-      <c r="B37" s="66"/>
-      <c r="C37" s="60" t="s">
+      <c r="B37" s="72"/>
+      <c r="C37" s="66" t="s">
         <v>107</v>
       </c>
-      <c r="D37" s="61"/>
-      <c r="E37" s="61"/>
-      <c r="F37" s="61"/>
-      <c r="G37" s="140"/>
+      <c r="D37" s="67"/>
+      <c r="E37" s="67"/>
+      <c r="F37" s="67"/>
+      <c r="G37" s="181"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A38" s="136"/>
-      <c r="B38" s="66"/>
-      <c r="C38" s="101"/>
-      <c r="D38" s="78"/>
-      <c r="E38" s="78"/>
-      <c r="F38" s="78"/>
-      <c r="G38" s="141"/>
+      <c r="A38" s="180"/>
+      <c r="B38" s="72"/>
+      <c r="C38" s="153"/>
+      <c r="D38" s="81"/>
+      <c r="E38" s="81"/>
+      <c r="F38" s="81"/>
+      <c r="G38" s="182"/>
     </row>
     <row r="39" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="137"/>
-      <c r="B39" s="90"/>
-      <c r="C39" s="143"/>
-      <c r="D39" s="144"/>
-      <c r="E39" s="144"/>
-      <c r="F39" s="144"/>
-      <c r="G39" s="145"/>
+      <c r="A39" s="184"/>
+      <c r="B39" s="159"/>
+      <c r="C39" s="185"/>
+      <c r="D39" s="100"/>
+      <c r="E39" s="100"/>
+      <c r="F39" s="100"/>
+      <c r="G39" s="101"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A40" s="31"/>
@@ -8938,228 +8932,227 @@
       <c r="G42" s="31"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A43" s="146" t="s">
+      <c r="A43" s="176" t="s">
         <v>108</v>
       </c>
-      <c r="B43" s="146"/>
-      <c r="C43" s="146"/>
-      <c r="D43" s="146"/>
-      <c r="E43" s="146"/>
-      <c r="F43" s="146"/>
-      <c r="G43" s="146"/>
+      <c r="B43" s="176"/>
+      <c r="C43" s="176"/>
+      <c r="D43" s="176"/>
+      <c r="E43" s="176"/>
+      <c r="F43" s="176"/>
+      <c r="G43" s="176"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A44" s="138" t="s">
+      <c r="A44" s="170" t="s">
         <v>109</v>
       </c>
-      <c r="B44" s="138"/>
-      <c r="C44" s="138" t="s">
+      <c r="B44" s="170"/>
+      <c r="C44" s="170" t="s">
         <v>110</v>
       </c>
-      <c r="D44" s="138"/>
-      <c r="E44" s="138"/>
-      <c r="F44" s="138"/>
-      <c r="G44" s="138"/>
+      <c r="D44" s="170"/>
+      <c r="E44" s="170"/>
+      <c r="F44" s="170"/>
+      <c r="G44" s="170"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A45" s="138" t="s">
+      <c r="A45" s="170" t="s">
         <v>111</v>
       </c>
-      <c r="B45" s="138"/>
-      <c r="C45" s="138" t="s">
+      <c r="B45" s="170"/>
+      <c r="C45" s="170" t="s">
         <v>112</v>
       </c>
-      <c r="D45" s="138"/>
-      <c r="E45" s="138"/>
-      <c r="F45" s="138"/>
-      <c r="G45" s="138"/>
+      <c r="D45" s="170"/>
+      <c r="E45" s="170"/>
+      <c r="F45" s="170"/>
+      <c r="G45" s="170"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A46" s="139" t="s">
+      <c r="A46" s="186" t="s">
         <v>113</v>
       </c>
-      <c r="B46" s="139"/>
-      <c r="C46" s="139" t="s">
+      <c r="B46" s="186"/>
+      <c r="C46" s="186" t="s">
         <v>114</v>
       </c>
-      <c r="D46" s="139"/>
-      <c r="E46" s="139"/>
-      <c r="F46" s="139"/>
-      <c r="G46" s="139"/>
+      <c r="D46" s="186"/>
+      <c r="E46" s="186"/>
+      <c r="F46" s="186"/>
+      <c r="G46" s="186"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A47" s="138" t="s">
+      <c r="A47" s="170" t="s">
         <v>115</v>
       </c>
-      <c r="B47" s="138"/>
-      <c r="C47" s="138" t="s">
+      <c r="B47" s="170"/>
+      <c r="C47" s="170" t="s">
         <v>116</v>
       </c>
-      <c r="D47" s="138"/>
-      <c r="E47" s="138"/>
-      <c r="F47" s="138"/>
-      <c r="G47" s="138"/>
+      <c r="D47" s="170"/>
+      <c r="E47" s="170"/>
+      <c r="F47" s="170"/>
+      <c r="G47" s="170"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A48" s="138" t="s">
+      <c r="A48" s="170" t="s">
         <v>117</v>
       </c>
-      <c r="B48" s="138"/>
-      <c r="C48" s="138" t="s">
+      <c r="B48" s="170"/>
+      <c r="C48" s="170" t="s">
         <v>118</v>
       </c>
-      <c r="D48" s="138"/>
-      <c r="E48" s="138"/>
-      <c r="F48" s="138"/>
-      <c r="G48" s="138"/>
+      <c r="D48" s="170"/>
+      <c r="E48" s="170"/>
+      <c r="F48" s="170"/>
+      <c r="G48" s="170"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A49" s="138" t="s">
+      <c r="A49" s="170" t="s">
         <v>119</v>
       </c>
-      <c r="B49" s="138"/>
-      <c r="C49" s="138" t="s">
+      <c r="B49" s="170"/>
+      <c r="C49" s="170" t="s">
         <v>120</v>
       </c>
-      <c r="D49" s="138"/>
-      <c r="E49" s="138"/>
-      <c r="F49" s="138"/>
-      <c r="G49" s="138"/>
+      <c r="D49" s="170"/>
+      <c r="E49" s="170"/>
+      <c r="F49" s="170"/>
+      <c r="G49" s="170"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A50" s="66" t="s">
+      <c r="A50" s="72" t="s">
         <v>121</v>
       </c>
-      <c r="B50" s="66"/>
-      <c r="C50" s="66" t="s">
+      <c r="B50" s="72"/>
+      <c r="C50" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="D50" s="66"/>
-      <c r="E50" s="66"/>
-      <c r="F50" s="66"/>
-      <c r="G50" s="66"/>
+      <c r="D50" s="72"/>
+      <c r="E50" s="72"/>
+      <c r="F50" s="72"/>
+      <c r="G50" s="72"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A51" s="66" t="s">
+      <c r="A51" s="72" t="s">
         <v>122</v>
       </c>
-      <c r="B51" s="66"/>
-      <c r="C51" s="66" t="s">
+      <c r="B51" s="72"/>
+      <c r="C51" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="D51" s="66"/>
-      <c r="E51" s="66"/>
-      <c r="F51" s="66"/>
-      <c r="G51" s="66"/>
+      <c r="D51" s="72"/>
+      <c r="E51" s="72"/>
+      <c r="F51" s="72"/>
+      <c r="G51" s="72"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A52" s="66" t="s">
+      <c r="A52" s="72" t="s">
         <v>123</v>
       </c>
-      <c r="B52" s="66"/>
-      <c r="C52" s="66" t="s">
+      <c r="B52" s="72"/>
+      <c r="C52" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="D52" s="66"/>
-      <c r="E52" s="66"/>
-      <c r="F52" s="66"/>
-      <c r="G52" s="66"/>
+      <c r="D52" s="72"/>
+      <c r="E52" s="72"/>
+      <c r="F52" s="72"/>
+      <c r="G52" s="72"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A53" s="66" t="s">
+      <c r="A53" s="72" t="s">
         <v>124</v>
       </c>
-      <c r="B53" s="66"/>
-      <c r="C53" s="66" t="s">
+      <c r="B53" s="72"/>
+      <c r="C53" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="D53" s="66"/>
-      <c r="E53" s="66"/>
-      <c r="F53" s="66"/>
-      <c r="G53" s="66"/>
+      <c r="D53" s="72"/>
+      <c r="E53" s="72"/>
+      <c r="F53" s="72"/>
+      <c r="G53" s="72"/>
     </row>
     <row r="54" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="55" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A55" s="133" t="s">
+      <c r="A55" s="177" t="s">
         <v>125</v>
       </c>
-      <c r="B55" s="134"/>
-      <c r="C55" s="134"/>
-      <c r="D55" s="134"/>
-      <c r="E55" s="134"/>
-      <c r="F55" s="134"/>
-      <c r="G55" s="135"/>
+      <c r="B55" s="178"/>
+      <c r="C55" s="178"/>
+      <c r="D55" s="178"/>
+      <c r="E55" s="178"/>
+      <c r="F55" s="178"/>
+      <c r="G55" s="179"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A56" s="136" t="s">
+      <c r="A56" s="180" t="s">
         <v>126</v>
       </c>
-      <c r="B56" s="66"/>
-      <c r="C56" s="66"/>
-      <c r="D56" s="66"/>
-      <c r="E56" s="66"/>
-      <c r="F56" s="66"/>
-      <c r="G56" s="91"/>
+      <c r="B56" s="72"/>
+      <c r="C56" s="72"/>
+      <c r="D56" s="72"/>
+      <c r="E56" s="72"/>
+      <c r="F56" s="72"/>
+      <c r="G56" s="144"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A57" s="136" t="s">
+      <c r="A57" s="180" t="s">
         <v>127</v>
       </c>
-      <c r="B57" s="66"/>
-      <c r="C57" s="66"/>
-      <c r="D57" s="66"/>
-      <c r="E57" s="66"/>
-      <c r="F57" s="66"/>
-      <c r="G57" s="91"/>
+      <c r="B57" s="72"/>
+      <c r="C57" s="72"/>
+      <c r="D57" s="72"/>
+      <c r="E57" s="72"/>
+      <c r="F57" s="72"/>
+      <c r="G57" s="144"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A58" s="136" t="s">
+      <c r="A58" s="180" t="s">
         <v>128</v>
       </c>
-      <c r="B58" s="66"/>
-      <c r="C58" s="66"/>
-      <c r="D58" s="66"/>
-      <c r="E58" s="66"/>
-      <c r="F58" s="66"/>
-      <c r="G58" s="91"/>
+      <c r="B58" s="72"/>
+      <c r="C58" s="72"/>
+      <c r="D58" s="72"/>
+      <c r="E58" s="72"/>
+      <c r="F58" s="72"/>
+      <c r="G58" s="144"/>
     </row>
     <row r="59" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A59" s="137" t="s">
+      <c r="A59" s="184" t="s">
         <v>129</v>
       </c>
-      <c r="B59" s="90"/>
-      <c r="C59" s="90"/>
-      <c r="D59" s="90"/>
-      <c r="E59" s="90"/>
-      <c r="F59" s="90"/>
-      <c r="G59" s="92"/>
+      <c r="B59" s="159"/>
+      <c r="C59" s="159"/>
+      <c r="D59" s="159"/>
+      <c r="E59" s="159"/>
+      <c r="F59" s="159"/>
+      <c r="G59" s="160"/>
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A17:G17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="A55:G55"/>
+    <mergeCell ref="A56:G56"/>
+    <mergeCell ref="A57:G57"/>
+    <mergeCell ref="A58:G58"/>
+    <mergeCell ref="A59:G59"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:G47"/>
     <mergeCell ref="A44:B44"/>
     <mergeCell ref="C44:G44"/>
     <mergeCell ref="A23:B23"/>
@@ -9174,29 +9167,30 @@
     <mergeCell ref="A37:B39"/>
     <mergeCell ref="C37:G39"/>
     <mergeCell ref="A43:G43"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="C45:G45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:G46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:G47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:G48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:G49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="C50:G50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="C51:G51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:G52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="C53:G53"/>
-    <mergeCell ref="A55:G55"/>
-    <mergeCell ref="A56:G56"/>
-    <mergeCell ref="A57:G57"/>
-    <mergeCell ref="A58:G58"/>
-    <mergeCell ref="A59:G59"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
